--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O732"/>
+  <dimension ref="A1:O750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42868,8 +42868,6 @@
       <c r="J732" t="n">
         <v>0</v>
       </c>
-      <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>605</v>
       </c>
@@ -42878,7 +42876,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F733" t="n">
+        <v>2096</v>
+      </c>
+      <c r="G733" t="n">
+        <v>32</v>
+      </c>
+      <c r="H733" t="n">
+        <v>108</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3</v>
+      </c>
+      <c r="J733" t="n">
+        <v>5</v>
+      </c>
+      <c r="K733" t="n">
+        <v>12</v>
+      </c>
+      <c r="L733" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M733" t="n">
+        <v>2</v>
+      </c>
+      <c r="N733" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O733" t="n">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F734" t="n">
+        <v>49</v>
+      </c>
+      <c r="G734" t="n">
+        <v>32</v>
+      </c>
+      <c r="H734" t="n">
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0</v>
+      </c>
+      <c r="J734" t="n">
+        <v>3</v>
+      </c>
+      <c r="L734" t="n">
+        <v>49</v>
+      </c>
+      <c r="M734" t="n">
+        <v>22</v>
+      </c>
+      <c r="N734" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F735" t="n">
+        <v>3</v>
+      </c>
+      <c r="G735" t="n">
+        <v>32</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="n">
+        <v>0</v>
+      </c>
+      <c r="J735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M735" t="n">
+        <v>30</v>
+      </c>
+      <c r="N735" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F736" t="n">
+        <v>49</v>
+      </c>
+      <c r="G736" t="n">
+        <v>32</v>
+      </c>
+      <c r="H736" t="n">
+        <v>2</v>
+      </c>
+      <c r="I736" t="n">
+        <v>2</v>
+      </c>
+      <c r="J736" t="n">
+        <v>3</v>
+      </c>
+      <c r="L736" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M736" t="n">
+        <v>32</v>
+      </c>
+      <c r="N736" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F737" t="n">
+        <v>731</v>
+      </c>
+      <c r="G737" t="n">
+        <v>32</v>
+      </c>
+      <c r="H737" t="n">
+        <v>66</v>
+      </c>
+      <c r="I737" t="n">
+        <v>0</v>
+      </c>
+      <c r="J737" t="n">
+        <v>4</v>
+      </c>
+      <c r="K737" t="n">
+        <v>15</v>
+      </c>
+      <c r="L737" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="M737" t="n">
+        <v>69</v>
+      </c>
+      <c r="N737" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O737" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F738" t="n">
+        <v>79</v>
+      </c>
+      <c r="G738" t="n">
+        <v>32</v>
+      </c>
+      <c r="H738" t="n">
+        <v>2</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0</v>
+      </c>
+      <c r="J738" t="n">
+        <v>3</v>
+      </c>
+      <c r="L738" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M738" t="n">
+        <v>79</v>
+      </c>
+      <c r="N738" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F739" t="n">
+        <v>67</v>
+      </c>
+      <c r="G739" t="n">
+        <v>32</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="n">
+        <v>0</v>
+      </c>
+      <c r="J739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M739" t="n">
+        <v>82</v>
+      </c>
+      <c r="N739" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F740" t="n">
+        <v>788</v>
+      </c>
+      <c r="G740" t="n">
+        <v>32</v>
+      </c>
+      <c r="H740" t="n">
+        <v>13</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0</v>
+      </c>
+      <c r="J740" t="n">
+        <v>4</v>
+      </c>
+      <c r="K740" t="n">
+        <v>24</v>
+      </c>
+      <c r="L740" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M740" t="n">
+        <v>88</v>
+      </c>
+      <c r="N740" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O740" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F741" t="n">
+        <v>114</v>
+      </c>
+      <c r="G741" t="n">
+        <v>16</v>
+      </c>
+      <c r="H741" t="n">
+        <v>16</v>
+      </c>
+      <c r="I741" t="n">
+        <v>0</v>
+      </c>
+      <c r="J741" t="n">
+        <v>3</v>
+      </c>
+      <c r="L741" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M741" t="n">
+        <v>116</v>
+      </c>
+      <c r="N741" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F742" t="n">
+        <v>218</v>
+      </c>
+      <c r="G742" t="n">
+        <v>32</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0</v>
+      </c>
+      <c r="J742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M742" t="n">
+        <v>118</v>
+      </c>
+      <c r="N742" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F743" t="n">
+        <v>20</v>
+      </c>
+      <c r="G743" t="n">
+        <v>32</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="n">
+        <v>0</v>
+      </c>
+      <c r="J743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M743" t="n">
+        <v>253</v>
+      </c>
+      <c r="N743" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F744" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G744" t="n">
+        <v>32</v>
+      </c>
+      <c r="H744" t="n">
+        <v>180</v>
+      </c>
+      <c r="I744" t="n">
+        <v>1</v>
+      </c>
+      <c r="J744" t="n">
+        <v>5</v>
+      </c>
+      <c r="K744" t="n">
+        <v>5</v>
+      </c>
+      <c r="L744" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M744" t="n">
+        <v>317</v>
+      </c>
+      <c r="N744" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O744" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F745" t="n">
+        <v>116</v>
+      </c>
+      <c r="G745" t="n">
+        <v>32</v>
+      </c>
+      <c r="H745" t="n">
+        <v>2</v>
+      </c>
+      <c r="I745" t="n">
+        <v>0</v>
+      </c>
+      <c r="J745" t="n">
+        <v>4</v>
+      </c>
+      <c r="L745" t="n">
+        <v>58</v>
+      </c>
+      <c r="M745" t="n">
+        <v>324</v>
+      </c>
+      <c r="N745" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F746" t="n">
+        <v>362</v>
+      </c>
+      <c r="G746" t="n">
+        <v>32</v>
+      </c>
+      <c r="H746" t="n">
+        <v>3</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0</v>
+      </c>
+      <c r="J746" t="n">
+        <v>4</v>
+      </c>
+      <c r="K746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L746" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M746" t="n">
+        <v>378</v>
+      </c>
+      <c r="N746" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O746" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F747" t="n">
+        <v>49</v>
+      </c>
+      <c r="G747" t="n">
+        <v>16</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="n">
+        <v>0</v>
+      </c>
+      <c r="J747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M747" t="n">
+        <v>389</v>
+      </c>
+      <c r="N747" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F748" t="n">
+        <v>587</v>
+      </c>
+      <c r="G748" t="n">
+        <v>8</v>
+      </c>
+      <c r="H748" t="n">
+        <v>34</v>
+      </c>
+      <c r="I748" t="n">
+        <v>3</v>
+      </c>
+      <c r="J748" t="n">
+        <v>4</v>
+      </c>
+      <c r="K748" t="n">
+        <v>263</v>
+      </c>
+      <c r="L748" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="M748" t="n">
+        <v>389</v>
+      </c>
+      <c r="N748" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O748" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F749" t="n">
+        <v>2</v>
+      </c>
+      <c r="G749" t="n">
+        <v>32</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="n">
+        <v>0</v>
+      </c>
+      <c r="J749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M749" t="n">
+        <v>426</v>
+      </c>
+      <c r="N749" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>2025/08/05</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F750" t="n">
+        <v>11</v>
+      </c>
+      <c r="G750" t="n">
+        <v>32</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0</v>
+      </c>
+      <c r="J750" t="n">
+        <v>0</v>
+      </c>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="inlineStr"/>
+      <c r="M750" t="n">
+        <v>605</v>
+      </c>
+      <c r="N750" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O750" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O750"/>
+  <dimension ref="A1:O768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43837,8 +43837,6 @@
       <c r="J750" t="n">
         <v>0</v>
       </c>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>605</v>
       </c>
@@ -43847,7 +43845,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F751" t="n">
+        <v>2103</v>
+      </c>
+      <c r="G751" t="n">
+        <v>32</v>
+      </c>
+      <c r="H751" t="n">
+        <v>108</v>
+      </c>
+      <c r="I751" t="n">
+        <v>3</v>
+      </c>
+      <c r="J751" t="n">
+        <v>5</v>
+      </c>
+      <c r="K751" t="n">
+        <v>12</v>
+      </c>
+      <c r="L751" t="n">
+        <v>19.47</v>
+      </c>
+      <c r="M751" t="n">
+        <v>3</v>
+      </c>
+      <c r="N751" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O751" t="n">
+        <v>22.37</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F752" t="n">
+        <v>49</v>
+      </c>
+      <c r="G752" t="n">
+        <v>32</v>
+      </c>
+      <c r="H752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0</v>
+      </c>
+      <c r="J752" t="n">
+        <v>3</v>
+      </c>
+      <c r="L752" t="n">
+        <v>49</v>
+      </c>
+      <c r="M752" t="n">
+        <v>23</v>
+      </c>
+      <c r="N752" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F753" t="n">
+        <v>3</v>
+      </c>
+      <c r="G753" t="n">
+        <v>32</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="n">
+        <v>0</v>
+      </c>
+      <c r="J753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M753" t="n">
+        <v>31</v>
+      </c>
+      <c r="N753" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F754" t="n">
+        <v>49</v>
+      </c>
+      <c r="G754" t="n">
+        <v>32</v>
+      </c>
+      <c r="H754" t="n">
+        <v>2</v>
+      </c>
+      <c r="I754" t="n">
+        <v>2</v>
+      </c>
+      <c r="J754" t="n">
+        <v>3</v>
+      </c>
+      <c r="L754" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M754" t="n">
+        <v>33</v>
+      </c>
+      <c r="N754" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F755" t="n">
+        <v>732</v>
+      </c>
+      <c r="G755" t="n">
+        <v>32</v>
+      </c>
+      <c r="H755" t="n">
+        <v>67</v>
+      </c>
+      <c r="I755" t="n">
+        <v>1</v>
+      </c>
+      <c r="J755" t="n">
+        <v>4</v>
+      </c>
+      <c r="K755" t="n">
+        <v>15</v>
+      </c>
+      <c r="L755" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="M755" t="n">
+        <v>70</v>
+      </c>
+      <c r="N755" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O755" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F756" t="n">
+        <v>79</v>
+      </c>
+      <c r="G756" t="n">
+        <v>32</v>
+      </c>
+      <c r="H756" t="n">
+        <v>2</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0</v>
+      </c>
+      <c r="J756" t="n">
+        <v>3</v>
+      </c>
+      <c r="L756" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M756" t="n">
+        <v>80</v>
+      </c>
+      <c r="N756" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F757" t="n">
+        <v>67</v>
+      </c>
+      <c r="G757" t="n">
+        <v>32</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="n">
+        <v>0</v>
+      </c>
+      <c r="J757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M757" t="n">
+        <v>83</v>
+      </c>
+      <c r="N757" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F758" t="n">
+        <v>788</v>
+      </c>
+      <c r="G758" t="n">
+        <v>32</v>
+      </c>
+      <c r="H758" t="n">
+        <v>13</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0</v>
+      </c>
+      <c r="J758" t="n">
+        <v>4</v>
+      </c>
+      <c r="K758" t="n">
+        <v>24</v>
+      </c>
+      <c r="L758" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M758" t="n">
+        <v>89</v>
+      </c>
+      <c r="N758" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O758" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F759" t="n">
+        <v>114</v>
+      </c>
+      <c r="G759" t="n">
+        <v>16</v>
+      </c>
+      <c r="H759" t="n">
+        <v>16</v>
+      </c>
+      <c r="I759" t="n">
+        <v>0</v>
+      </c>
+      <c r="J759" t="n">
+        <v>3</v>
+      </c>
+      <c r="L759" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M759" t="n">
+        <v>117</v>
+      </c>
+      <c r="N759" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F760" t="n">
+        <v>221</v>
+      </c>
+      <c r="G760" t="n">
+        <v>32</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0</v>
+      </c>
+      <c r="J760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M760" t="n">
+        <v>119</v>
+      </c>
+      <c r="N760" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F761" t="n">
+        <v>20</v>
+      </c>
+      <c r="G761" t="n">
+        <v>32</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="n">
+        <v>0</v>
+      </c>
+      <c r="J761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M761" t="n">
+        <v>254</v>
+      </c>
+      <c r="N761" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F762" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G762" t="n">
+        <v>32</v>
+      </c>
+      <c r="H762" t="n">
+        <v>180</v>
+      </c>
+      <c r="I762" t="n">
+        <v>1</v>
+      </c>
+      <c r="J762" t="n">
+        <v>5</v>
+      </c>
+      <c r="K762" t="n">
+        <v>5</v>
+      </c>
+      <c r="L762" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M762" t="n">
+        <v>318</v>
+      </c>
+      <c r="N762" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O762" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F763" t="n">
+        <v>116</v>
+      </c>
+      <c r="G763" t="n">
+        <v>32</v>
+      </c>
+      <c r="H763" t="n">
+        <v>2</v>
+      </c>
+      <c r="I763" t="n">
+        <v>0</v>
+      </c>
+      <c r="J763" t="n">
+        <v>4</v>
+      </c>
+      <c r="L763" t="n">
+        <v>58</v>
+      </c>
+      <c r="M763" t="n">
+        <v>325</v>
+      </c>
+      <c r="N763" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F764" t="n">
+        <v>362</v>
+      </c>
+      <c r="G764" t="n">
+        <v>32</v>
+      </c>
+      <c r="H764" t="n">
+        <v>3</v>
+      </c>
+      <c r="I764" t="n">
+        <v>0</v>
+      </c>
+      <c r="J764" t="n">
+        <v>4</v>
+      </c>
+      <c r="K764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L764" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M764" t="n">
+        <v>379</v>
+      </c>
+      <c r="N764" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O764" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F765" t="n">
+        <v>49</v>
+      </c>
+      <c r="G765" t="n">
+        <v>16</v>
+      </c>
+      <c r="H765" t="n">
+        <v>0</v>
+      </c>
+      <c r="I765" t="n">
+        <v>0</v>
+      </c>
+      <c r="J765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M765" t="n">
+        <v>390</v>
+      </c>
+      <c r="N765" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F766" t="n">
+        <v>589</v>
+      </c>
+      <c r="G766" t="n">
+        <v>8</v>
+      </c>
+      <c r="H766" t="n">
+        <v>34</v>
+      </c>
+      <c r="I766" t="n">
+        <v>4</v>
+      </c>
+      <c r="J766" t="n">
+        <v>4</v>
+      </c>
+      <c r="K766" t="n">
+        <v>263</v>
+      </c>
+      <c r="L766" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="M766" t="n">
+        <v>390</v>
+      </c>
+      <c r="N766" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O766" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F767" t="n">
+        <v>2</v>
+      </c>
+      <c r="G767" t="n">
+        <v>32</v>
+      </c>
+      <c r="H767" t="n">
+        <v>0</v>
+      </c>
+      <c r="I767" t="n">
+        <v>0</v>
+      </c>
+      <c r="J767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M767" t="n">
+        <v>427</v>
+      </c>
+      <c r="N767" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>2025/08/06</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F768" t="n">
+        <v>11</v>
+      </c>
+      <c r="G768" t="n">
+        <v>32</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0</v>
+      </c>
+      <c r="I768" t="n">
+        <v>0</v>
+      </c>
+      <c r="J768" t="n">
+        <v>0</v>
+      </c>
+      <c r="K768" t="inlineStr"/>
+      <c r="L768" t="inlineStr"/>
+      <c r="M768" t="n">
+        <v>606</v>
+      </c>
+      <c r="N768" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O768" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O768"/>
+  <dimension ref="A1:O786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44806,8 +44806,6 @@
       <c r="J768" t="n">
         <v>0</v>
       </c>
-      <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
       <c r="M768" t="n">
         <v>606</v>
       </c>
@@ -44816,7 +44814,978 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F769" t="n">
+        <v>2111</v>
+      </c>
+      <c r="G769" t="n">
+        <v>32</v>
+      </c>
+      <c r="H769" t="n">
+        <v>109</v>
+      </c>
+      <c r="I769" t="n">
+        <v>3</v>
+      </c>
+      <c r="J769" t="n">
+        <v>5</v>
+      </c>
+      <c r="K769" t="n">
+        <v>12</v>
+      </c>
+      <c r="L769" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="M769" t="n">
+        <v>5</v>
+      </c>
+      <c r="N769" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O769" t="n">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F770" t="n">
+        <v>49</v>
+      </c>
+      <c r="G770" t="n">
+        <v>32</v>
+      </c>
+      <c r="H770" t="n">
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>0</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3</v>
+      </c>
+      <c r="L770" t="n">
+        <v>49</v>
+      </c>
+      <c r="M770" t="n">
+        <v>25</v>
+      </c>
+      <c r="N770" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F771" t="n">
+        <v>3</v>
+      </c>
+      <c r="G771" t="n">
+        <v>32</v>
+      </c>
+      <c r="H771" t="n">
+        <v>0</v>
+      </c>
+      <c r="I771" t="n">
+        <v>0</v>
+      </c>
+      <c r="J771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M771" t="n">
+        <v>32</v>
+      </c>
+      <c r="N771" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F772" t="n">
+        <v>49</v>
+      </c>
+      <c r="G772" t="n">
+        <v>32</v>
+      </c>
+      <c r="H772" t="n">
+        <v>2</v>
+      </c>
+      <c r="I772" t="n">
+        <v>2</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3</v>
+      </c>
+      <c r="L772" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M772" t="n">
+        <v>35</v>
+      </c>
+      <c r="N772" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F773" t="n">
+        <v>735</v>
+      </c>
+      <c r="G773" t="n">
+        <v>32</v>
+      </c>
+      <c r="H773" t="n">
+        <v>67</v>
+      </c>
+      <c r="I773" t="n">
+        <v>2</v>
+      </c>
+      <c r="J773" t="n">
+        <v>4</v>
+      </c>
+      <c r="K773" t="n">
+        <v>15</v>
+      </c>
+      <c r="L773" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M773" t="n">
+        <v>72</v>
+      </c>
+      <c r="N773" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O773" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F774" t="n">
+        <v>79</v>
+      </c>
+      <c r="G774" t="n">
+        <v>32</v>
+      </c>
+      <c r="H774" t="n">
+        <v>2</v>
+      </c>
+      <c r="I774" t="n">
+        <v>0</v>
+      </c>
+      <c r="J774" t="n">
+        <v>3</v>
+      </c>
+      <c r="L774" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M774" t="n">
+        <v>82</v>
+      </c>
+      <c r="N774" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F775" t="n">
+        <v>67</v>
+      </c>
+      <c r="G775" t="n">
+        <v>32</v>
+      </c>
+      <c r="H775" t="n">
+        <v>0</v>
+      </c>
+      <c r="I775" t="n">
+        <v>0</v>
+      </c>
+      <c r="J775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M775" t="n">
+        <v>85</v>
+      </c>
+      <c r="N775" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F776" t="n">
+        <v>788</v>
+      </c>
+      <c r="G776" t="n">
+        <v>32</v>
+      </c>
+      <c r="H776" t="n">
+        <v>13</v>
+      </c>
+      <c r="I776" t="n">
+        <v>0</v>
+      </c>
+      <c r="J776" t="n">
+        <v>4</v>
+      </c>
+      <c r="K776" t="n">
+        <v>24</v>
+      </c>
+      <c r="L776" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M776" t="n">
+        <v>90</v>
+      </c>
+      <c r="N776" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O776" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F777" t="n">
+        <v>114</v>
+      </c>
+      <c r="G777" t="n">
+        <v>16</v>
+      </c>
+      <c r="H777" t="n">
+        <v>16</v>
+      </c>
+      <c r="I777" t="n">
+        <v>0</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3</v>
+      </c>
+      <c r="L777" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="M777" t="n">
+        <v>119</v>
+      </c>
+      <c r="N777" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F778" t="n">
+        <v>223</v>
+      </c>
+      <c r="G778" t="n">
+        <v>32</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="n">
+        <v>0</v>
+      </c>
+      <c r="J778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M778" t="n">
+        <v>121</v>
+      </c>
+      <c r="N778" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F779" t="n">
+        <v>20</v>
+      </c>
+      <c r="G779" t="n">
+        <v>32</v>
+      </c>
+      <c r="H779" t="n">
+        <v>0</v>
+      </c>
+      <c r="I779" t="n">
+        <v>0</v>
+      </c>
+      <c r="J779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M779" t="n">
+        <v>256</v>
+      </c>
+      <c r="N779" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F780" t="n">
+        <v>4231</v>
+      </c>
+      <c r="G780" t="n">
+        <v>32</v>
+      </c>
+      <c r="H780" t="n">
+        <v>180</v>
+      </c>
+      <c r="I780" t="n">
+        <v>1</v>
+      </c>
+      <c r="J780" t="n">
+        <v>5</v>
+      </c>
+      <c r="K780" t="n">
+        <v>5</v>
+      </c>
+      <c r="L780" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="M780" t="n">
+        <v>320</v>
+      </c>
+      <c r="N780" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O780" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F781" t="n">
+        <v>116</v>
+      </c>
+      <c r="G781" t="n">
+        <v>32</v>
+      </c>
+      <c r="H781" t="n">
+        <v>2</v>
+      </c>
+      <c r="I781" t="n">
+        <v>0</v>
+      </c>
+      <c r="J781" t="n">
+        <v>4</v>
+      </c>
+      <c r="L781" t="n">
+        <v>58</v>
+      </c>
+      <c r="M781" t="n">
+        <v>326</v>
+      </c>
+      <c r="N781" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F782" t="n">
+        <v>362</v>
+      </c>
+      <c r="G782" t="n">
+        <v>32</v>
+      </c>
+      <c r="H782" t="n">
+        <v>3</v>
+      </c>
+      <c r="I782" t="n">
+        <v>0</v>
+      </c>
+      <c r="J782" t="n">
+        <v>4</v>
+      </c>
+      <c r="K782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L782" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M782" t="n">
+        <v>380</v>
+      </c>
+      <c r="N782" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O782" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F783" t="n">
+        <v>49</v>
+      </c>
+      <c r="G783" t="n">
+        <v>16</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="n">
+        <v>0</v>
+      </c>
+      <c r="J783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M783" t="n">
+        <v>392</v>
+      </c>
+      <c r="N783" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F784" t="n">
+        <v>591</v>
+      </c>
+      <c r="G784" t="n">
+        <v>8</v>
+      </c>
+      <c r="H784" t="n">
+        <v>34</v>
+      </c>
+      <c r="I784" t="n">
+        <v>4</v>
+      </c>
+      <c r="J784" t="n">
+        <v>4</v>
+      </c>
+      <c r="K784" t="n">
+        <v>263</v>
+      </c>
+      <c r="L784" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="M784" t="n">
+        <v>392</v>
+      </c>
+      <c r="N784" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O784" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F785" t="n">
+        <v>2</v>
+      </c>
+      <c r="G785" t="n">
+        <v>32</v>
+      </c>
+      <c r="H785" t="n">
+        <v>0</v>
+      </c>
+      <c r="I785" t="n">
+        <v>0</v>
+      </c>
+      <c r="J785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M785" t="n">
+        <v>428</v>
+      </c>
+      <c r="N785" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>2025/08/07</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F786" t="n">
+        <v>11</v>
+      </c>
+      <c r="G786" t="n">
+        <v>32</v>
+      </c>
+      <c r="H786" t="n">
+        <v>0</v>
+      </c>
+      <c r="I786" t="n">
+        <v>0</v>
+      </c>
+      <c r="J786" t="n">
+        <v>0</v>
+      </c>
+      <c r="K786" t="inlineStr"/>
+      <c r="L786" t="inlineStr"/>
+      <c r="M786" t="n">
+        <v>607</v>
+      </c>
+      <c r="N786" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O786"/>
+  <dimension ref="A1:O840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -45775,8 +45775,6 @@
       <c r="J786" t="n">
         <v>0</v>
       </c>
-      <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>607</v>
       </c>
@@ -45785,7 +45783,2916 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F787" t="n">
+        <v>2115</v>
+      </c>
+      <c r="G787" t="n">
+        <v>32</v>
+      </c>
+      <c r="H787" t="n">
+        <v>110</v>
+      </c>
+      <c r="I787" t="n">
+        <v>3</v>
+      </c>
+      <c r="J787" t="n">
+        <v>5</v>
+      </c>
+      <c r="K787" t="n">
+        <v>12</v>
+      </c>
+      <c r="L787" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="M787" t="n">
+        <v>6</v>
+      </c>
+      <c r="N787" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O787" t="n">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F788" t="n">
+        <v>49</v>
+      </c>
+      <c r="G788" t="n">
+        <v>32</v>
+      </c>
+      <c r="H788" t="n">
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>0</v>
+      </c>
+      <c r="J788" t="n">
+        <v>3</v>
+      </c>
+      <c r="L788" t="n">
+        <v>49</v>
+      </c>
+      <c r="M788" t="n">
+        <v>26</v>
+      </c>
+      <c r="N788" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F789" t="n">
+        <v>3</v>
+      </c>
+      <c r="G789" t="n">
+        <v>32</v>
+      </c>
+      <c r="H789" t="n">
+        <v>0</v>
+      </c>
+      <c r="I789" t="n">
+        <v>0</v>
+      </c>
+      <c r="J789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M789" t="n">
+        <v>33</v>
+      </c>
+      <c r="N789" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F790" t="n">
+        <v>49</v>
+      </c>
+      <c r="G790" t="n">
+        <v>32</v>
+      </c>
+      <c r="H790" t="n">
+        <v>2</v>
+      </c>
+      <c r="I790" t="n">
+        <v>2</v>
+      </c>
+      <c r="J790" t="n">
+        <v>3</v>
+      </c>
+      <c r="L790" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M790" t="n">
+        <v>36</v>
+      </c>
+      <c r="N790" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F791" t="n">
+        <v>735</v>
+      </c>
+      <c r="G791" t="n">
+        <v>32</v>
+      </c>
+      <c r="H791" t="n">
+        <v>67</v>
+      </c>
+      <c r="I791" t="n">
+        <v>2</v>
+      </c>
+      <c r="J791" t="n">
+        <v>4</v>
+      </c>
+      <c r="K791" t="n">
+        <v>15</v>
+      </c>
+      <c r="L791" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M791" t="n">
+        <v>73</v>
+      </c>
+      <c r="N791" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O791" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F792" t="n">
+        <v>79</v>
+      </c>
+      <c r="G792" t="n">
+        <v>32</v>
+      </c>
+      <c r="H792" t="n">
+        <v>2</v>
+      </c>
+      <c r="I792" t="n">
+        <v>0</v>
+      </c>
+      <c r="J792" t="n">
+        <v>3</v>
+      </c>
+      <c r="L792" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M792" t="n">
+        <v>83</v>
+      </c>
+      <c r="N792" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F793" t="n">
+        <v>67</v>
+      </c>
+      <c r="G793" t="n">
+        <v>32</v>
+      </c>
+      <c r="H793" t="n">
+        <v>0</v>
+      </c>
+      <c r="I793" t="n">
+        <v>0</v>
+      </c>
+      <c r="J793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M793" t="n">
+        <v>86</v>
+      </c>
+      <c r="N793" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F794" t="n">
+        <v>788</v>
+      </c>
+      <c r="G794" t="n">
+        <v>32</v>
+      </c>
+      <c r="H794" t="n">
+        <v>13</v>
+      </c>
+      <c r="I794" t="n">
+        <v>0</v>
+      </c>
+      <c r="J794" t="n">
+        <v>4</v>
+      </c>
+      <c r="K794" t="n">
+        <v>24</v>
+      </c>
+      <c r="L794" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M794" t="n">
+        <v>91</v>
+      </c>
+      <c r="N794" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O794" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F795" t="n">
+        <v>116</v>
+      </c>
+      <c r="G795" t="n">
+        <v>16</v>
+      </c>
+      <c r="H795" t="n">
+        <v>16</v>
+      </c>
+      <c r="I795" t="n">
+        <v>1</v>
+      </c>
+      <c r="J795" t="n">
+        <v>3</v>
+      </c>
+      <c r="L795" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M795" t="n">
+        <v>120</v>
+      </c>
+      <c r="N795" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F796" t="n">
+        <v>224</v>
+      </c>
+      <c r="G796" t="n">
+        <v>32</v>
+      </c>
+      <c r="H796" t="n">
+        <v>0</v>
+      </c>
+      <c r="I796" t="n">
+        <v>0</v>
+      </c>
+      <c r="J796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M796" t="n">
+        <v>122</v>
+      </c>
+      <c r="N796" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F797" t="n">
+        <v>20</v>
+      </c>
+      <c r="G797" t="n">
+        <v>32</v>
+      </c>
+      <c r="H797" t="n">
+        <v>0</v>
+      </c>
+      <c r="I797" t="n">
+        <v>0</v>
+      </c>
+      <c r="J797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M797" t="n">
+        <v>257</v>
+      </c>
+      <c r="N797" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F798" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G798" t="n">
+        <v>32</v>
+      </c>
+      <c r="H798" t="n">
+        <v>181</v>
+      </c>
+      <c r="I798" t="n">
+        <v>1</v>
+      </c>
+      <c r="J798" t="n">
+        <v>5</v>
+      </c>
+      <c r="K798" t="n">
+        <v>5</v>
+      </c>
+      <c r="L798" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M798" t="n">
+        <v>321</v>
+      </c>
+      <c r="N798" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O798" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F799" t="n">
+        <v>116</v>
+      </c>
+      <c r="G799" t="n">
+        <v>32</v>
+      </c>
+      <c r="H799" t="n">
+        <v>2</v>
+      </c>
+      <c r="I799" t="n">
+        <v>0</v>
+      </c>
+      <c r="J799" t="n">
+        <v>4</v>
+      </c>
+      <c r="L799" t="n">
+        <v>58</v>
+      </c>
+      <c r="M799" t="n">
+        <v>327</v>
+      </c>
+      <c r="N799" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F800" t="n">
+        <v>362</v>
+      </c>
+      <c r="G800" t="n">
+        <v>32</v>
+      </c>
+      <c r="H800" t="n">
+        <v>3</v>
+      </c>
+      <c r="I800" t="n">
+        <v>0</v>
+      </c>
+      <c r="J800" t="n">
+        <v>4</v>
+      </c>
+      <c r="K800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L800" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M800" t="n">
+        <v>381</v>
+      </c>
+      <c r="N800" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O800" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F801" t="n">
+        <v>49</v>
+      </c>
+      <c r="G801" t="n">
+        <v>16</v>
+      </c>
+      <c r="H801" t="n">
+        <v>0</v>
+      </c>
+      <c r="I801" t="n">
+        <v>0</v>
+      </c>
+      <c r="J801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M801" t="n">
+        <v>393</v>
+      </c>
+      <c r="N801" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F802" t="n">
+        <v>595</v>
+      </c>
+      <c r="G802" t="n">
+        <v>8</v>
+      </c>
+      <c r="H802" t="n">
+        <v>34</v>
+      </c>
+      <c r="I802" t="n">
+        <v>4</v>
+      </c>
+      <c r="J802" t="n">
+        <v>4</v>
+      </c>
+      <c r="K802" t="n">
+        <v>263</v>
+      </c>
+      <c r="L802" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M802" t="n">
+        <v>393</v>
+      </c>
+      <c r="N802" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O802" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F803" t="n">
+        <v>2</v>
+      </c>
+      <c r="G803" t="n">
+        <v>32</v>
+      </c>
+      <c r="H803" t="n">
+        <v>0</v>
+      </c>
+      <c r="I803" t="n">
+        <v>0</v>
+      </c>
+      <c r="J803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M803" t="n">
+        <v>429</v>
+      </c>
+      <c r="N803" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>2025/08/08</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F804" t="n">
+        <v>11</v>
+      </c>
+      <c r="G804" t="n">
+        <v>32</v>
+      </c>
+      <c r="H804" t="n">
+        <v>0</v>
+      </c>
+      <c r="I804" t="n">
+        <v>0</v>
+      </c>
+      <c r="J804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M804" t="n">
+        <v>608</v>
+      </c>
+      <c r="N804" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F805" t="n">
+        <v>2116</v>
+      </c>
+      <c r="G805" t="n">
+        <v>32</v>
+      </c>
+      <c r="H805" t="n">
+        <v>109</v>
+      </c>
+      <c r="I805" t="n">
+        <v>3</v>
+      </c>
+      <c r="J805" t="n">
+        <v>5</v>
+      </c>
+      <c r="K805" t="n">
+        <v>12</v>
+      </c>
+      <c r="L805" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="M805" t="n">
+        <v>6</v>
+      </c>
+      <c r="N805" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O805" t="n">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F806" t="n">
+        <v>49</v>
+      </c>
+      <c r="G806" t="n">
+        <v>32</v>
+      </c>
+      <c r="H806" t="n">
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>0</v>
+      </c>
+      <c r="J806" t="n">
+        <v>3</v>
+      </c>
+      <c r="L806" t="n">
+        <v>49</v>
+      </c>
+      <c r="M806" t="n">
+        <v>26</v>
+      </c>
+      <c r="N806" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F807" t="n">
+        <v>3</v>
+      </c>
+      <c r="G807" t="n">
+        <v>32</v>
+      </c>
+      <c r="H807" t="n">
+        <v>0</v>
+      </c>
+      <c r="I807" t="n">
+        <v>0</v>
+      </c>
+      <c r="J807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M807" t="n">
+        <v>33</v>
+      </c>
+      <c r="N807" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F808" t="n">
+        <v>49</v>
+      </c>
+      <c r="G808" t="n">
+        <v>32</v>
+      </c>
+      <c r="H808" t="n">
+        <v>2</v>
+      </c>
+      <c r="I808" t="n">
+        <v>0</v>
+      </c>
+      <c r="J808" t="n">
+        <v>3</v>
+      </c>
+      <c r="L808" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M808" t="n">
+        <v>36</v>
+      </c>
+      <c r="N808" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F809" t="n">
+        <v>735</v>
+      </c>
+      <c r="G809" t="n">
+        <v>32</v>
+      </c>
+      <c r="H809" t="n">
+        <v>67</v>
+      </c>
+      <c r="I809" t="n">
+        <v>2</v>
+      </c>
+      <c r="J809" t="n">
+        <v>4</v>
+      </c>
+      <c r="K809" t="n">
+        <v>15</v>
+      </c>
+      <c r="L809" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M809" t="n">
+        <v>73</v>
+      </c>
+      <c r="N809" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O809" t="n">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F810" t="n">
+        <v>79</v>
+      </c>
+      <c r="G810" t="n">
+        <v>32</v>
+      </c>
+      <c r="H810" t="n">
+        <v>2</v>
+      </c>
+      <c r="I810" t="n">
+        <v>0</v>
+      </c>
+      <c r="J810" t="n">
+        <v>3</v>
+      </c>
+      <c r="L810" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M810" t="n">
+        <v>83</v>
+      </c>
+      <c r="N810" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>2025-05-14T15:58:52.154Z</t>
+        </is>
+      </c>
+      <c r="F811" t="n">
+        <v>70</v>
+      </c>
+      <c r="G811" t="n">
+        <v>32</v>
+      </c>
+      <c r="H811" t="n">
+        <v>0</v>
+      </c>
+      <c r="I811" t="n">
+        <v>0</v>
+      </c>
+      <c r="J811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M811" t="n">
+        <v>86</v>
+      </c>
+      <c r="N811" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F812" t="n">
+        <v>788</v>
+      </c>
+      <c r="G812" t="n">
+        <v>32</v>
+      </c>
+      <c r="H812" t="n">
+        <v>13</v>
+      </c>
+      <c r="I812" t="n">
+        <v>0</v>
+      </c>
+      <c r="J812" t="n">
+        <v>4</v>
+      </c>
+      <c r="K812" t="n">
+        <v>24</v>
+      </c>
+      <c r="L812" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M812" t="n">
+        <v>92</v>
+      </c>
+      <c r="N812" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O812" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F813" t="n">
+        <v>117</v>
+      </c>
+      <c r="G813" t="n">
+        <v>16</v>
+      </c>
+      <c r="H813" t="n">
+        <v>16</v>
+      </c>
+      <c r="I813" t="n">
+        <v>1</v>
+      </c>
+      <c r="J813" t="n">
+        <v>3</v>
+      </c>
+      <c r="L813" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M813" t="n">
+        <v>120</v>
+      </c>
+      <c r="N813" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F814" t="n">
+        <v>224</v>
+      </c>
+      <c r="G814" t="n">
+        <v>32</v>
+      </c>
+      <c r="H814" t="n">
+        <v>0</v>
+      </c>
+      <c r="I814" t="n">
+        <v>0</v>
+      </c>
+      <c r="J814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M814" t="n">
+        <v>122</v>
+      </c>
+      <c r="N814" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F815" t="n">
+        <v>20</v>
+      </c>
+      <c r="G815" t="n">
+        <v>32</v>
+      </c>
+      <c r="H815" t="n">
+        <v>0</v>
+      </c>
+      <c r="I815" t="n">
+        <v>0</v>
+      </c>
+      <c r="J815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M815" t="n">
+        <v>257</v>
+      </c>
+      <c r="N815" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F816" t="n">
+        <v>4238</v>
+      </c>
+      <c r="G816" t="n">
+        <v>32</v>
+      </c>
+      <c r="H816" t="n">
+        <v>181</v>
+      </c>
+      <c r="I816" t="n">
+        <v>1</v>
+      </c>
+      <c r="J816" t="n">
+        <v>5</v>
+      </c>
+      <c r="K816" t="n">
+        <v>5</v>
+      </c>
+      <c r="L816" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="M816" t="n">
+        <v>321</v>
+      </c>
+      <c r="N816" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O816" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F817" t="n">
+        <v>116</v>
+      </c>
+      <c r="G817" t="n">
+        <v>32</v>
+      </c>
+      <c r="H817" t="n">
+        <v>2</v>
+      </c>
+      <c r="I817" t="n">
+        <v>0</v>
+      </c>
+      <c r="J817" t="n">
+        <v>4</v>
+      </c>
+      <c r="L817" t="n">
+        <v>58</v>
+      </c>
+      <c r="M817" t="n">
+        <v>327</v>
+      </c>
+      <c r="N817" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F818" t="n">
+        <v>362</v>
+      </c>
+      <c r="G818" t="n">
+        <v>32</v>
+      </c>
+      <c r="H818" t="n">
+        <v>3</v>
+      </c>
+      <c r="I818" t="n">
+        <v>0</v>
+      </c>
+      <c r="J818" t="n">
+        <v>4</v>
+      </c>
+      <c r="K818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L818" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M818" t="n">
+        <v>382</v>
+      </c>
+      <c r="N818" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O818" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F819" t="n">
+        <v>49</v>
+      </c>
+      <c r="G819" t="n">
+        <v>16</v>
+      </c>
+      <c r="H819" t="n">
+        <v>0</v>
+      </c>
+      <c r="I819" t="n">
+        <v>0</v>
+      </c>
+      <c r="J819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M819" t="n">
+        <v>393</v>
+      </c>
+      <c r="N819" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F820" t="n">
+        <v>596</v>
+      </c>
+      <c r="G820" t="n">
+        <v>8</v>
+      </c>
+      <c r="H820" t="n">
+        <v>34</v>
+      </c>
+      <c r="I820" t="n">
+        <v>4</v>
+      </c>
+      <c r="J820" t="n">
+        <v>4</v>
+      </c>
+      <c r="K820" t="n">
+        <v>263</v>
+      </c>
+      <c r="L820" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M820" t="n">
+        <v>393</v>
+      </c>
+      <c r="N820" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O820" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F821" t="n">
+        <v>2</v>
+      </c>
+      <c r="G821" t="n">
+        <v>32</v>
+      </c>
+      <c r="H821" t="n">
+        <v>0</v>
+      </c>
+      <c r="I821" t="n">
+        <v>0</v>
+      </c>
+      <c r="J821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M821" t="n">
+        <v>430</v>
+      </c>
+      <c r="N821" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>2025/08/09</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F822" t="n">
+        <v>11</v>
+      </c>
+      <c r="G822" t="n">
+        <v>32</v>
+      </c>
+      <c r="H822" t="n">
+        <v>0</v>
+      </c>
+      <c r="I822" t="n">
+        <v>0</v>
+      </c>
+      <c r="J822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M822" t="n">
+        <v>609</v>
+      </c>
+      <c r="N822" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F823" t="n">
+        <v>70</v>
+      </c>
+      <c r="G823" t="n">
+        <v>32</v>
+      </c>
+      <c r="H823" t="n">
+        <v>0</v>
+      </c>
+      <c r="I823" t="n">
+        <v>0</v>
+      </c>
+      <c r="J823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N823" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F824" t="n">
+        <v>2128</v>
+      </c>
+      <c r="G824" t="n">
+        <v>32</v>
+      </c>
+      <c r="H824" t="n">
+        <v>109</v>
+      </c>
+      <c r="I824" t="n">
+        <v>3</v>
+      </c>
+      <c r="J824" t="n">
+        <v>5</v>
+      </c>
+      <c r="K824" t="n">
+        <v>12</v>
+      </c>
+      <c r="L824" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="M824" t="n">
+        <v>7</v>
+      </c>
+      <c r="N824" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O824" t="n">
+        <v>21.71</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F825" t="n">
+        <v>49</v>
+      </c>
+      <c r="G825" t="n">
+        <v>32</v>
+      </c>
+      <c r="H825" t="n">
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>0</v>
+      </c>
+      <c r="J825" t="n">
+        <v>3</v>
+      </c>
+      <c r="L825" t="n">
+        <v>49</v>
+      </c>
+      <c r="M825" t="n">
+        <v>27</v>
+      </c>
+      <c r="N825" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F826" t="n">
+        <v>3</v>
+      </c>
+      <c r="G826" t="n">
+        <v>32</v>
+      </c>
+      <c r="H826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="n">
+        <v>0</v>
+      </c>
+      <c r="J826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M826" t="n">
+        <v>34</v>
+      </c>
+      <c r="N826" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F827" t="n">
+        <v>50</v>
+      </c>
+      <c r="G827" t="n">
+        <v>32</v>
+      </c>
+      <c r="H827" t="n">
+        <v>2</v>
+      </c>
+      <c r="I827" t="n">
+        <v>1</v>
+      </c>
+      <c r="J827" t="n">
+        <v>3</v>
+      </c>
+      <c r="L827" t="n">
+        <v>25</v>
+      </c>
+      <c r="M827" t="n">
+        <v>37</v>
+      </c>
+      <c r="N827" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F828" t="n">
+        <v>735</v>
+      </c>
+      <c r="G828" t="n">
+        <v>32</v>
+      </c>
+      <c r="H828" t="n">
+        <v>67</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2</v>
+      </c>
+      <c r="J828" t="n">
+        <v>4</v>
+      </c>
+      <c r="K828" t="n">
+        <v>15</v>
+      </c>
+      <c r="L828" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="M828" t="n">
+        <v>74</v>
+      </c>
+      <c r="N828" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O828" t="n">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F829" t="n">
+        <v>79</v>
+      </c>
+      <c r="G829" t="n">
+        <v>32</v>
+      </c>
+      <c r="H829" t="n">
+        <v>2</v>
+      </c>
+      <c r="I829" t="n">
+        <v>0</v>
+      </c>
+      <c r="J829" t="n">
+        <v>3</v>
+      </c>
+      <c r="L829" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="M829" t="n">
+        <v>84</v>
+      </c>
+      <c r="N829" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F830" t="n">
+        <v>788</v>
+      </c>
+      <c r="G830" t="n">
+        <v>32</v>
+      </c>
+      <c r="H830" t="n">
+        <v>13</v>
+      </c>
+      <c r="I830" t="n">
+        <v>0</v>
+      </c>
+      <c r="J830" t="n">
+        <v>4</v>
+      </c>
+      <c r="K830" t="n">
+        <v>24</v>
+      </c>
+      <c r="L830" t="n">
+        <v>60.62</v>
+      </c>
+      <c r="M830" t="n">
+        <v>93</v>
+      </c>
+      <c r="N830" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O830" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D831" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F831" t="n">
+        <v>117</v>
+      </c>
+      <c r="G831" t="n">
+        <v>16</v>
+      </c>
+      <c r="H831" t="n">
+        <v>16</v>
+      </c>
+      <c r="I831" t="n">
+        <v>1</v>
+      </c>
+      <c r="J831" t="n">
+        <v>3</v>
+      </c>
+      <c r="L831" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="M831" t="n">
+        <v>121</v>
+      </c>
+      <c r="N831" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F832" t="n">
+        <v>227</v>
+      </c>
+      <c r="G832" t="n">
+        <v>32</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="n">
+        <v>0</v>
+      </c>
+      <c r="J832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M832" t="n">
+        <v>123</v>
+      </c>
+      <c r="N832" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D833" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F833" t="n">
+        <v>20</v>
+      </c>
+      <c r="G833" t="n">
+        <v>32</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="n">
+        <v>0</v>
+      </c>
+      <c r="J833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M833" t="n">
+        <v>258</v>
+      </c>
+      <c r="N833" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F834" t="n">
+        <v>4242</v>
+      </c>
+      <c r="G834" t="n">
+        <v>32</v>
+      </c>
+      <c r="H834" t="n">
+        <v>181</v>
+      </c>
+      <c r="I834" t="n">
+        <v>2</v>
+      </c>
+      <c r="J834" t="n">
+        <v>5</v>
+      </c>
+      <c r="K834" t="n">
+        <v>5</v>
+      </c>
+      <c r="L834" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="M834" t="n">
+        <v>322</v>
+      </c>
+      <c r="N834" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O834" t="n">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D835" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F835" t="n">
+        <v>116</v>
+      </c>
+      <c r="G835" t="n">
+        <v>32</v>
+      </c>
+      <c r="H835" t="n">
+        <v>2</v>
+      </c>
+      <c r="I835" t="n">
+        <v>0</v>
+      </c>
+      <c r="J835" t="n">
+        <v>4</v>
+      </c>
+      <c r="L835" t="n">
+        <v>58</v>
+      </c>
+      <c r="M835" t="n">
+        <v>328</v>
+      </c>
+      <c r="N835" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F836" t="n">
+        <v>362</v>
+      </c>
+      <c r="G836" t="n">
+        <v>32</v>
+      </c>
+      <c r="H836" t="n">
+        <v>3</v>
+      </c>
+      <c r="I836" t="n">
+        <v>0</v>
+      </c>
+      <c r="J836" t="n">
+        <v>4</v>
+      </c>
+      <c r="K836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L836" t="n">
+        <v>120.67</v>
+      </c>
+      <c r="M836" t="n">
+        <v>383</v>
+      </c>
+      <c r="N836" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O836" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F837" t="n">
+        <v>49</v>
+      </c>
+      <c r="G837" t="n">
+        <v>16</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="n">
+        <v>0</v>
+      </c>
+      <c r="J837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M837" t="n">
+        <v>394</v>
+      </c>
+      <c r="N837" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F838" t="n">
+        <v>596</v>
+      </c>
+      <c r="G838" t="n">
+        <v>8</v>
+      </c>
+      <c r="H838" t="n">
+        <v>34</v>
+      </c>
+      <c r="I838" t="n">
+        <v>4</v>
+      </c>
+      <c r="J838" t="n">
+        <v>4</v>
+      </c>
+      <c r="K838" t="n">
+        <v>263</v>
+      </c>
+      <c r="L838" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="M838" t="n">
+        <v>394</v>
+      </c>
+      <c r="N838" t="inlineStr">
+        <is>
+          <t>public</t>
+        </is>
+      </c>
+      <c r="O838" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F839" t="n">
+        <v>2</v>
+      </c>
+      <c r="G839" t="n">
+        <v>32</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="n">
+        <v>0</v>
+      </c>
+      <c r="J839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M839" t="n">
+        <v>431</v>
+      </c>
+      <c r="N839" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>2025/08/10</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F840" t="n">
+        <v>11</v>
+      </c>
+      <c r="G840" t="n">
+        <v>32</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="n">
+        <v>0</v>
+      </c>
+      <c r="J840" t="n">
+        <v>0</v>
+      </c>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
+      <c r="M840" t="n">
+        <v>610</v>
+      </c>
+      <c r="N840" t="inlineStr">
+        <is>
+          <t>private</t>
+        </is>
+      </c>
+      <c r="O840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O840"/>
+  <dimension ref="A1:O859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48682,8 +48682,6 @@
       <c r="J840" t="n">
         <v>0</v>
       </c>
-      <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>610</v>
       </c>
@@ -48692,7 +48690,1070 @@
           <t>private</t>
         </is>
       </c>
-      <c r="O840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Starsight Museum</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>wrld_befc82b9-48d1-4d2a-8269-fb1ac1518f69</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:48:58.458Z</t>
+        </is>
+      </c>
+      <c r="F841" t="n">
+        <v>0</v>
+      </c>
+      <c r="G841" t="n">
+        <v>32</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="n">
+        <v>0</v>
+      </c>
+      <c r="J841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F842" t="n">
+        <v>70</v>
+      </c>
+      <c r="G842" t="n">
+        <v>32</v>
+      </c>
+      <c r="H842" t="n">
+        <v>0</v>
+      </c>
+      <c r="I842" t="n">
+        <v>0</v>
+      </c>
+      <c r="J842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L842" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>8天</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F843" t="n">
+        <v>2173</v>
+      </c>
+      <c r="G843" t="n">
+        <v>32</v>
+      </c>
+      <c r="H843" t="n">
+        <v>110</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3</v>
+      </c>
+      <c r="J843" t="n">
+        <v>5</v>
+      </c>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+      <c r="L843" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>15天</t>
+        </is>
+      </c>
+      <c r="N843" t="inlineStr">
+        <is>
+          <t>106天</t>
+        </is>
+      </c>
+      <c r="O843" t="n">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F844" t="n">
+        <v>50</v>
+      </c>
+      <c r="G844" t="n">
+        <v>32</v>
+      </c>
+      <c r="H844" t="n">
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>0</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3</v>
+      </c>
+      <c r="L844" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>35天</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F845" t="n">
+        <v>3</v>
+      </c>
+      <c r="G845" t="n">
+        <v>32</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="n">
+        <v>0</v>
+      </c>
+      <c r="J845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L845" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>42天</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F846" t="n">
+        <v>54</v>
+      </c>
+      <c r="G846" t="n">
+        <v>32</v>
+      </c>
+      <c r="H846" t="n">
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>2</v>
+      </c>
+      <c r="J846" t="n">
+        <v>3</v>
+      </c>
+      <c r="L846" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>45天</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F847" t="n">
+        <v>746</v>
+      </c>
+      <c r="G847" t="n">
+        <v>32</v>
+      </c>
+      <c r="H847" t="n">
+        <v>67</v>
+      </c>
+      <c r="I847" t="n">
+        <v>2</v>
+      </c>
+      <c r="J847" t="n">
+        <v>4</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>15天</t>
+        </is>
+      </c>
+      <c r="L847" t="inlineStr">
+        <is>
+          <t>8.98%</t>
+        </is>
+      </c>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>82天</t>
+        </is>
+      </c>
+      <c r="N847" t="inlineStr">
+        <is>
+          <t>130天</t>
+        </is>
+      </c>
+      <c r="O847" t="n">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F848" t="n">
+        <v>79</v>
+      </c>
+      <c r="G848" t="n">
+        <v>32</v>
+      </c>
+      <c r="H848" t="n">
+        <v>2</v>
+      </c>
+      <c r="I848" t="n">
+        <v>0</v>
+      </c>
+      <c r="J848" t="n">
+        <v>3</v>
+      </c>
+      <c r="L848" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="M848" t="inlineStr">
+        <is>
+          <t>92天</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F849" t="n">
+        <v>801</v>
+      </c>
+      <c r="G849" t="n">
+        <v>32</v>
+      </c>
+      <c r="H849" t="n">
+        <v>15</v>
+      </c>
+      <c r="I849" t="n">
+        <v>1</v>
+      </c>
+      <c r="J849" t="n">
+        <v>4</v>
+      </c>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>24天</t>
+        </is>
+      </c>
+      <c r="L849" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="M849" t="inlineStr">
+        <is>
+          <t>101天</t>
+        </is>
+      </c>
+      <c r="N849" t="inlineStr">
+        <is>
+          <t>391天</t>
+        </is>
+      </c>
+      <c r="O849" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F850" t="n">
+        <v>119</v>
+      </c>
+      <c r="G850" t="n">
+        <v>16</v>
+      </c>
+      <c r="H850" t="n">
+        <v>17</v>
+      </c>
+      <c r="I850" t="n">
+        <v>1</v>
+      </c>
+      <c r="J850" t="n">
+        <v>3</v>
+      </c>
+      <c r="L850" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="M850" t="inlineStr">
+        <is>
+          <t>129天</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F851" t="n">
+        <v>234</v>
+      </c>
+      <c r="G851" t="n">
+        <v>32</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="n">
+        <v>0</v>
+      </c>
+      <c r="J851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L851" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M851" t="inlineStr">
+        <is>
+          <t>131天</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D852" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F852" t="n">
+        <v>20</v>
+      </c>
+      <c r="G852" t="n">
+        <v>32</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="n">
+        <v>0</v>
+      </c>
+      <c r="J852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L852" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M852" t="inlineStr">
+        <is>
+          <t>266天</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D853" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F853" t="n">
+        <v>4255</v>
+      </c>
+      <c r="G853" t="n">
+        <v>32</v>
+      </c>
+      <c r="H853" t="n">
+        <v>181</v>
+      </c>
+      <c r="I853" t="n">
+        <v>2</v>
+      </c>
+      <c r="J853" t="n">
+        <v>5</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="L853" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
+      <c r="M853" t="inlineStr">
+        <is>
+          <t>330天</t>
+        </is>
+      </c>
+      <c r="N853" t="inlineStr">
+        <is>
+          <t>672天</t>
+        </is>
+      </c>
+      <c r="O853" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D854" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F854" t="n">
+        <v>117</v>
+      </c>
+      <c r="G854" t="n">
+        <v>32</v>
+      </c>
+      <c r="H854" t="n">
+        <v>2</v>
+      </c>
+      <c r="I854" t="n">
+        <v>0</v>
+      </c>
+      <c r="J854" t="n">
+        <v>4</v>
+      </c>
+      <c r="L854" t="inlineStr">
+        <is>
+          <t>1.71%</t>
+        </is>
+      </c>
+      <c r="M854" t="inlineStr">
+        <is>
+          <t>336天</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D855" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F855" t="n">
+        <v>362</v>
+      </c>
+      <c r="G855" t="n">
+        <v>32</v>
+      </c>
+      <c r="H855" t="n">
+        <v>3</v>
+      </c>
+      <c r="I855" t="n">
+        <v>0</v>
+      </c>
+      <c r="J855" t="n">
+        <v>4</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L855" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>391天</t>
+        </is>
+      </c>
+      <c r="N855" t="inlineStr">
+        <is>
+          <t>390天</t>
+        </is>
+      </c>
+      <c r="O855" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D856" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F856" t="n">
+        <v>49</v>
+      </c>
+      <c r="G856" t="n">
+        <v>16</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="n">
+        <v>0</v>
+      </c>
+      <c r="J856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M856" t="inlineStr">
+        <is>
+          <t>402天</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D857" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F857" t="n">
+        <v>610</v>
+      </c>
+      <c r="G857" t="n">
+        <v>8</v>
+      </c>
+      <c r="H857" t="n">
+        <v>34</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3</v>
+      </c>
+      <c r="J857" t="n">
+        <v>4</v>
+      </c>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>263天</t>
+        </is>
+      </c>
+      <c r="L857" t="inlineStr">
+        <is>
+          <t>5.57%</t>
+        </is>
+      </c>
+      <c r="M857" t="inlineStr">
+        <is>
+          <t>402天</t>
+        </is>
+      </c>
+      <c r="N857" t="inlineStr">
+        <is>
+          <t>405天</t>
+        </is>
+      </c>
+      <c r="O857" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D858" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F858" t="n">
+        <v>2</v>
+      </c>
+      <c r="G858" t="n">
+        <v>32</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="n">
+        <v>0</v>
+      </c>
+      <c r="J858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L858" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>439天</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>2025/08/18</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D859" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F859" t="n">
+        <v>11</v>
+      </c>
+      <c r="G859" t="n">
+        <v>32</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="n">
+        <v>0</v>
+      </c>
+      <c r="J859" t="n">
+        <v>0</v>
+      </c>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M859" t="inlineStr">
+        <is>
+          <t>618天</t>
+        </is>
+      </c>
+      <c r="N859" t="inlineStr"/>
+      <c r="O859" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/world_info/scraper/history_table.xlsx
+++ b/world_info/scraper/history_table.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O859"/>
+  <dimension ref="A1:O978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49741,7 +49741,6 @@
       <c r="J859" t="n">
         <v>0</v>
       </c>
-      <c r="K859" t="inlineStr"/>
       <c r="L859" t="inlineStr">
         <is>
           <t>0.0%</t>
@@ -49752,8 +49751,7024 @@
           <t>618天</t>
         </is>
       </c>
-      <c r="N859" t="inlineStr"/>
-      <c r="O859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>SunDown</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>wrld_c54add9f-29b2-4b60-b051-e4999966ebc8</t>
+        </is>
+      </c>
+      <c r="D860" t="inlineStr">
+        <is>
+          <t>2023-09-09T14:17:32.516Z</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2025-04-29T05:35:43.868Z</t>
+        </is>
+      </c>
+      <c r="F860" t="n">
+        <v>0</v>
+      </c>
+      <c r="G860" t="n">
+        <v>80</v>
+      </c>
+      <c r="H860" t="n">
+        <v>75203</v>
+      </c>
+      <c r="I860" t="n">
+        <v>6</v>
+      </c>
+      <c r="J860" t="n">
+        <v>8</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M860" t="inlineStr">
+        <is>
+          <t>111天</t>
+        </is>
+      </c>
+      <c r="N860" t="inlineStr">
+        <is>
+          <t>709天</t>
+        </is>
+      </c>
+      <c r="O860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>［Initial D］ Myogi （Circuit）</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>wrld_78e566af-c5f4-4654-9baf-98209560fbb9</t>
+        </is>
+      </c>
+      <c r="D861" t="inlineStr">
+        <is>
+          <t>2022-12-23T19:00:48.552Z</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>2025-01-14T12:45:26.684Z</t>
+        </is>
+      </c>
+      <c r="F861" t="n">
+        <v>0</v>
+      </c>
+      <c r="G861" t="n">
+        <v>30</v>
+      </c>
+      <c r="H861" t="n">
+        <v>60922</v>
+      </c>
+      <c r="I861" t="n">
+        <v>6</v>
+      </c>
+      <c r="J861" t="n">
+        <v>8</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M861" t="inlineStr">
+        <is>
+          <t>216天</t>
+        </is>
+      </c>
+      <c r="N861" t="inlineStr">
+        <is>
+          <t>969天</t>
+        </is>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>Padded Room</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>wrld_6295d6c6-2e61-444e-87f2-51c378b2b794</t>
+        </is>
+      </c>
+      <c r="D862" t="inlineStr">
+        <is>
+          <t>2023-02-06T01:01:45.622Z</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2024-08-18T19:37:38.312Z</t>
+        </is>
+      </c>
+      <c r="F862" t="n">
+        <v>0</v>
+      </c>
+      <c r="G862" t="n">
+        <v>64</v>
+      </c>
+      <c r="H862" t="n">
+        <v>27255</v>
+      </c>
+      <c r="I862" t="n">
+        <v>6</v>
+      </c>
+      <c r="J862" t="n">
+        <v>8</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M862" t="inlineStr">
+        <is>
+          <t>365天</t>
+        </is>
+      </c>
+      <c r="N862" t="inlineStr">
+        <is>
+          <t>924天</t>
+        </is>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>Wobblins' Digital Circus</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>wrld_29ed52b4-f39f-4874-a012-c95d8eff02a2</t>
+        </is>
+      </c>
+      <c r="D863" t="inlineStr">
+        <is>
+          <t>2024-04-16T03:38:25.239Z</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2025-08-16T06:12:16.238Z</t>
+        </is>
+      </c>
+      <c r="F863" t="n">
+        <v>0</v>
+      </c>
+      <c r="G863" t="n">
+        <v>80</v>
+      </c>
+      <c r="H863" t="n">
+        <v>26862</v>
+      </c>
+      <c r="I863" t="n">
+        <v>7</v>
+      </c>
+      <c r="J863" t="n">
+        <v>8</v>
+      </c>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M863" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="N863" t="inlineStr">
+        <is>
+          <t>489天</t>
+        </is>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>XOXO</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>wrld_ad40aaf3-65ed-4fbc-b6fd-3d59135048cb</t>
+        </is>
+      </c>
+      <c r="D864" t="inlineStr">
+        <is>
+          <t>2023-04-30T05:43:56.147Z</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>2023-04-30T02:45:32.643Z</t>
+        </is>
+      </c>
+      <c r="F864" t="n">
+        <v>0</v>
+      </c>
+      <c r="G864" t="n">
+        <v>80</v>
+      </c>
+      <c r="H864" t="n">
+        <v>18209</v>
+      </c>
+      <c r="I864" t="n">
+        <v>5</v>
+      </c>
+      <c r="J864" t="n">
+        <v>8</v>
+      </c>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M864" t="inlineStr">
+        <is>
+          <t>841天</t>
+        </is>
+      </c>
+      <c r="N864" t="inlineStr">
+        <is>
+          <t>841天</t>
+        </is>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>［Initial D］ Lake Akina</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>wrld_fff707c6-bec1-442c-b4d6-41a707166f37</t>
+        </is>
+      </c>
+      <c r="D865" t="inlineStr">
+        <is>
+          <t>2019-05-16T12:43:34.254Z</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>2024-09-05T12:20:29.200Z</t>
+        </is>
+      </c>
+      <c r="F865" t="n">
+        <v>0</v>
+      </c>
+      <c r="G865" t="n">
+        <v>80</v>
+      </c>
+      <c r="H865" t="n">
+        <v>39704</v>
+      </c>
+      <c r="I865" t="n">
+        <v>5</v>
+      </c>
+      <c r="J865" t="n">
+        <v>8</v>
+      </c>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>347天</t>
+        </is>
+      </c>
+      <c r="N865" t="inlineStr">
+        <is>
+          <t>2286天</t>
+        </is>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>THE AMAZING DIGITAL CIRCUS</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>wrld_4b412aae-2e51-4ef4-854d-884b47b5a134</t>
+        </is>
+      </c>
+      <c r="D866" t="inlineStr">
+        <is>
+          <t>2023-11-04T12:29:08.630Z</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>2025-08-16T17:35:01.481Z</t>
+        </is>
+      </c>
+      <c r="F866" t="n">
+        <v>0</v>
+      </c>
+      <c r="G866" t="n">
+        <v>80</v>
+      </c>
+      <c r="H866" t="n">
+        <v>18572</v>
+      </c>
+      <c r="I866" t="n">
+        <v>6</v>
+      </c>
+      <c r="J866" t="n">
+        <v>8</v>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="N866" t="inlineStr">
+        <is>
+          <t>653天</t>
+        </is>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>Deathrun v1․21</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>wrld_09e0ce18-45d2-4a26-92c5-e28034194e40</t>
+        </is>
+      </c>
+      <c r="D867" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:03:45.625Z</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>2019-12-07T05:23:16.004Z</t>
+        </is>
+      </c>
+      <c r="F867" t="n">
+        <v>0</v>
+      </c>
+      <c r="G867" t="n">
+        <v>36</v>
+      </c>
+      <c r="H867" t="n">
+        <v>10317</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3</v>
+      </c>
+      <c r="J867" t="n">
+        <v>8</v>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>2081天</t>
+        </is>
+      </c>
+      <c r="N867" t="inlineStr">
+        <is>
+          <t>2473天</t>
+        </is>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>Shotgun Roulette 2 - 4 Players Like Buckshot Roulette PVP［EN‚CHS‚JA］</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>wrld_763c51b6-d96e-49ed-b340-7dadb1d68e78</t>
+        </is>
+      </c>
+      <c r="D868" t="inlineStr">
+        <is>
+          <t>2024-02-14T15:22:33.613Z</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>2024-12-22T11:02:49.549Z</t>
+        </is>
+      </c>
+      <c r="F868" t="n">
+        <v>0</v>
+      </c>
+      <c r="G868" t="n">
+        <v>80</v>
+      </c>
+      <c r="H868" t="n">
+        <v>38977</v>
+      </c>
+      <c r="I868" t="n">
+        <v>4</v>
+      </c>
+      <c r="J868" t="n">
+        <v>7</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>239天</t>
+        </is>
+      </c>
+      <c r="N868" t="inlineStr">
+        <is>
+          <t>551天</t>
+        </is>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>Pinggiran Kota Indonesia</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>wrld_21a2cb6d-1f0a-4d2c-b520-88c375b188b5</t>
+        </is>
+      </c>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>2022-11-30T17:47:02.298Z</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>2025-06-07T13:25:10.844Z</t>
+        </is>
+      </c>
+      <c r="F869" t="n">
+        <v>0</v>
+      </c>
+      <c r="G869" t="n">
+        <v>80</v>
+      </c>
+      <c r="H869" t="n">
+        <v>3618</v>
+      </c>
+      <c r="I869" t="n">
+        <v>6</v>
+      </c>
+      <c r="J869" t="n">
+        <v>7</v>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>72天</t>
+        </is>
+      </c>
+      <c r="N869" t="inlineStr">
+        <is>
+          <t>992天</t>
+        </is>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>Cozy Room</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>wrld_2b59723d-c41c-44a0-8c94-ec2fe98e28ef</t>
+        </is>
+      </c>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>2021-10-26T11:16:20.473Z</t>
+        </is>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>2022-08-10T21:33:47.932Z</t>
+        </is>
+      </c>
+      <c r="F870" t="n">
+        <v>0</v>
+      </c>
+      <c r="G870" t="n">
+        <v>32</v>
+      </c>
+      <c r="H870" t="n">
+        <v>8043</v>
+      </c>
+      <c r="I870" t="n">
+        <v>5</v>
+      </c>
+      <c r="J870" t="n">
+        <v>7</v>
+      </c>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>157天</t>
+        </is>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>1104天</t>
+        </is>
+      </c>
+      <c r="N870" t="inlineStr">
+        <is>
+          <t>1392天</t>
+        </is>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>COMPLEX ULTRA ［FR］FRENCH</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>wrld_b54580b5-ad67-4c59-b67e-d684eb42fda7</t>
+        </is>
+      </c>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>2022-10-28T20:13:20.506Z</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>2025-08-18T19:31:59.530Z</t>
+        </is>
+      </c>
+      <c r="F871" t="n">
+        <v>0</v>
+      </c>
+      <c r="G871" t="n">
+        <v>80</v>
+      </c>
+      <c r="H871" t="n">
+        <v>5890</v>
+      </c>
+      <c r="I871" t="n">
+        <v>6</v>
+      </c>
+      <c r="J871" t="n">
+        <v>7</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N871" t="inlineStr">
+        <is>
+          <t>1025天</t>
+        </is>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>The Amazing Digital Circus ǃ</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>wrld_754e5770-a185-46a5-8fce-24157bd599f5</t>
+        </is>
+      </c>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>2023-10-17T20:40:58.839Z</t>
+        </is>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>2024-03-22T22:02:13.629Z</t>
+        </is>
+      </c>
+      <c r="F872" t="n">
+        <v>0</v>
+      </c>
+      <c r="G872" t="n">
+        <v>64</v>
+      </c>
+      <c r="H872" t="n">
+        <v>13103</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4</v>
+      </c>
+      <c r="J872" t="n">
+        <v>7</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>514天</t>
+        </is>
+      </c>
+      <c r="N872" t="inlineStr">
+        <is>
+          <t>671天</t>
+        </is>
+      </c>
+      <c r="O872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>Aircraft Carrier Jets˸ F⁄A-18F Super Hornet Block III</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>wrld_ad8de2fb-7523-4833-9506-0a58f3a9e271</t>
+        </is>
+      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>2022-02-14T14:39:01.599Z</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>2024-11-10T18:17:01.809Z</t>
+        </is>
+      </c>
+      <c r="F873" t="n">
+        <v>0</v>
+      </c>
+      <c r="G873" t="n">
+        <v>80</v>
+      </c>
+      <c r="H873" t="n">
+        <v>19809</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4</v>
+      </c>
+      <c r="J873" t="n">
+        <v>7</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>281天</t>
+        </is>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>1281天</t>
+        </is>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>［Initial D］ Akina</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>wrld_9425872f-03fe-4941-9c69-db6765b0d0a6</t>
+        </is>
+      </c>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>2019-04-11T23:11:22.369Z</t>
+        </is>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>2025-01-03T03:07:09.757Z</t>
+        </is>
+      </c>
+      <c r="F874" t="n">
+        <v>0</v>
+      </c>
+      <c r="G874" t="n">
+        <v>80</v>
+      </c>
+      <c r="H874" t="n">
+        <v>21278</v>
+      </c>
+      <c r="I874" t="n">
+        <v>5</v>
+      </c>
+      <c r="J874" t="n">
+        <v>7</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>227天</t>
+        </is>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>2321天</t>
+        </is>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>【CBS対応】悠々の間</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>wrld_7eb91216-9fac-4481-a3cd-5f9b9d7d3a2d</t>
+        </is>
+      </c>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>2024-09-11T10:14:09.782Z</t>
+        </is>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>2025-08-12T00:47:35.647Z</t>
+        </is>
+      </c>
+      <c r="F875" t="n">
+        <v>0</v>
+      </c>
+      <c r="G875" t="n">
+        <v>32</v>
+      </c>
+      <c r="H875" t="n">
+        <v>1749</v>
+      </c>
+      <c r="I875" t="n">
+        <v>5</v>
+      </c>
+      <c r="J875" t="n">
+        <v>7</v>
+      </c>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>6天</t>
+        </is>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>341天</t>
+        </is>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>［Initial D］ Usui （Arcade Stage Circuit Ver․ 2）</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>wrld_d4e913da-c552-4c1a-8604-d50f1cc1cde5</t>
+        </is>
+      </c>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>2020-06-15T03:25:30.211Z</t>
+        </is>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>2024-09-13T10:38:52.061Z</t>
+        </is>
+      </c>
+      <c r="F876" t="n">
+        <v>0</v>
+      </c>
+      <c r="G876" t="n">
+        <v>60</v>
+      </c>
+      <c r="H876" t="n">
+        <v>13760</v>
+      </c>
+      <c r="I876" t="n">
+        <v>4</v>
+      </c>
+      <c r="J876" t="n">
+        <v>7</v>
+      </c>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>339天</t>
+        </is>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>1890天</t>
+        </is>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>［Initial D］ Myogi （Arcade Stage Ver․）</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>wrld_0e88c6a2-1742-46d0-a685-c51628be280e</t>
+        </is>
+      </c>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>2020-06-22T09:05:03.396Z</t>
+        </is>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>2025-05-06T02:12:03.860Z</t>
+        </is>
+      </c>
+      <c r="F877" t="n">
+        <v>0</v>
+      </c>
+      <c r="G877" t="n">
+        <v>40</v>
+      </c>
+      <c r="H877" t="n">
+        <v>10220</v>
+      </c>
+      <c r="I877" t="n">
+        <v>5</v>
+      </c>
+      <c r="J877" t="n">
+        <v>7</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>104天</t>
+        </is>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>1883天</t>
+        </is>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Cougar Circuit Drift CVS2</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>wrld_e4ecd2a7-2165-407a-80b5-2dcbebca0f7e</t>
+        </is>
+      </c>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>2025-06-09T17:15:52.088Z</t>
+        </is>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>2025-08-18T19:21:34.975Z</t>
+        </is>
+      </c>
+      <c r="F878" t="n">
+        <v>0</v>
+      </c>
+      <c r="G878" t="n">
+        <v>64</v>
+      </c>
+      <c r="H878" t="n">
+        <v>12443</v>
+      </c>
+      <c r="I878" t="n">
+        <v>6</v>
+      </c>
+      <c r="J878" t="n">
+        <v>7</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>70天</t>
+        </is>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>【CBS対応】地下労働場</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>wrld_314d9a11-c2a6-477b-866c-0f820124a80e</t>
+        </is>
+      </c>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>2023-06-12T15:15:49.739Z</t>
+        </is>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>2025-08-09T13:01:35.768Z</t>
+        </is>
+      </c>
+      <c r="F879" t="n">
+        <v>0</v>
+      </c>
+      <c r="G879" t="n">
+        <v>60</v>
+      </c>
+      <c r="H879" t="n">
+        <v>3681</v>
+      </c>
+      <c r="I879" t="n">
+        <v>5</v>
+      </c>
+      <c r="J879" t="n">
+        <v>7</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>798天</t>
+        </is>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>A Morioh Station JOJO Bizarre Adventure Avatars 2․1 PC - QUEST</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>wrld_ec628907-03cb-47cc-baef-08da19b0e9f7</t>
+        </is>
+      </c>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>2019-05-30T05:15:29.868Z</t>
+        </is>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>2021-01-08T04:59:09.570Z</t>
+        </is>
+      </c>
+      <c r="F880" t="n">
+        <v>0</v>
+      </c>
+      <c r="G880" t="n">
+        <v>42</v>
+      </c>
+      <c r="H880" t="n">
+        <v>18552</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3</v>
+      </c>
+      <c r="J880" t="n">
+        <v>7</v>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>1683天</t>
+        </is>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>2272天</t>
+        </is>
+      </c>
+      <c r="O880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Cozy Keep</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>wrld_2fa34ac8-7ac5-40a2-a4ce-71adc9e5af9c</t>
+        </is>
+      </c>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>2024-08-29T01:39:15.508Z</t>
+        </is>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>2024-09-03T06:01:30.446Z</t>
+        </is>
+      </c>
+      <c r="F881" t="n">
+        <v>0</v>
+      </c>
+      <c r="G881" t="n">
+        <v>80</v>
+      </c>
+      <c r="H881" t="n">
+        <v>3558</v>
+      </c>
+      <c r="I881" t="n">
+        <v>5</v>
+      </c>
+      <c r="J881" t="n">
+        <v>7</v>
+      </c>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>349天</t>
+        </is>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>354天</t>
+        </is>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Dream Boat</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>wrld_6e561319-3aeb-4b54-95f3-ae98f534a0e1</t>
+        </is>
+      </c>
+      <c r="D882" t="inlineStr">
+        <is>
+          <t>2024-07-29T09:19:01.579Z</t>
+        </is>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>2024-09-16T23:03:42.956Z</t>
+        </is>
+      </c>
+      <c r="F882" t="n">
+        <v>0</v>
+      </c>
+      <c r="G882" t="n">
+        <v>80</v>
+      </c>
+      <c r="H882" t="n">
+        <v>9337</v>
+      </c>
+      <c r="I882" t="n">
+        <v>5</v>
+      </c>
+      <c r="J882" t="n">
+        <v>7</v>
+      </c>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>336天</t>
+        </is>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>385天</t>
+        </is>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Dandy World's RP ｜｜ CHECK DISC</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>wrld_1f361e27-7cae-4981-ba95-f7b0e80639a2</t>
+        </is>
+      </c>
+      <c r="D883" t="inlineStr">
+        <is>
+          <t>2024-07-17T03:04:21.804Z</t>
+        </is>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>2025-07-10T05:50:30.796Z</t>
+        </is>
+      </c>
+      <c r="F883" t="n">
+        <v>0</v>
+      </c>
+      <c r="G883" t="n">
+        <v>62</v>
+      </c>
+      <c r="H883" t="n">
+        <v>4507</v>
+      </c>
+      <c r="I883" t="n">
+        <v>5</v>
+      </c>
+      <c r="J883" t="n">
+        <v>7</v>
+      </c>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>39天</t>
+        </is>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>397天</t>
+        </is>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>PeekABowo's Avatars</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>wrld_1335985a-3f47-487d-8d71-e19b4a6688d6</t>
+        </is>
+      </c>
+      <c r="D884" t="inlineStr">
+        <is>
+          <t>2023-03-10T16:17:20.051Z</t>
+        </is>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>2025-06-03T20:58:07.168Z</t>
+        </is>
+      </c>
+      <c r="F884" t="n">
+        <v>0</v>
+      </c>
+      <c r="G884" t="n">
+        <v>64</v>
+      </c>
+      <c r="H884" t="n">
+        <v>35355</v>
+      </c>
+      <c r="I884" t="n">
+        <v>4</v>
+      </c>
+      <c r="J884" t="n">
+        <v>7</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>76天</t>
+        </is>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>892天</t>
+        </is>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Circuit Master puzzle game ＆ maze</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>wrld_bed45248-5d93-433f-8aa3-5517bf8ca464</t>
+        </is>
+      </c>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>2021-09-28T01:45:55.545Z</t>
+        </is>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>2023-08-09T16:02:06.602Z</t>
+        </is>
+      </c>
+      <c r="F885" t="n">
+        <v>0</v>
+      </c>
+      <c r="G885" t="n">
+        <v>64</v>
+      </c>
+      <c r="H885" t="n">
+        <v>9189</v>
+      </c>
+      <c r="I885" t="n">
+        <v>4</v>
+      </c>
+      <c r="J885" t="n">
+        <v>7</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>740天</t>
+        </is>
+      </c>
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>1420天</t>
+        </is>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>More Than Life</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>wrld_473eff4b-2646-4cd4-ac9b-2bc0eb272d66</t>
+        </is>
+      </c>
+      <c r="D886" t="inlineStr">
+        <is>
+          <t>2024-08-10T08:48:39.092Z</t>
+        </is>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>2024-08-11T00:10:16.270Z</t>
+        </is>
+      </c>
+      <c r="F886" t="n">
+        <v>0</v>
+      </c>
+      <c r="G886" t="n">
+        <v>80</v>
+      </c>
+      <c r="H886" t="n">
+        <v>4845</v>
+      </c>
+      <c r="I886" t="n">
+        <v>5</v>
+      </c>
+      <c r="J886" t="n">
+        <v>7</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>373天</t>
+        </is>
+      </c>
+      <c r="N886" t="inlineStr">
+        <is>
+          <t>373天</t>
+        </is>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>City Night Drive</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>wrld_e6b6ea55-7011-4cbe-b627-70336271550f</t>
+        </is>
+      </c>
+      <c r="D887" t="inlineStr">
+        <is>
+          <t>2024-03-10T16:46:01.752Z</t>
+        </is>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>2025-05-18T16:25:16.099Z</t>
+        </is>
+      </c>
+      <c r="F887" t="n">
+        <v>0</v>
+      </c>
+      <c r="G887" t="n">
+        <v>64</v>
+      </c>
+      <c r="H887" t="n">
+        <v>12586</v>
+      </c>
+      <c r="I887" t="n">
+        <v>4</v>
+      </c>
+      <c r="J887" t="n">
+        <v>7</v>
+      </c>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>92天</t>
+        </is>
+      </c>
+      <c r="N887" t="inlineStr">
+        <is>
+          <t>526天</t>
+        </is>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>Momiji Downhill Chikuwa Drift＆Grip Time Attack</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>wrld_f8bf004a-6329-4db5-889f-63e617ac447f</t>
+        </is>
+      </c>
+      <c r="D888" t="inlineStr">
+        <is>
+          <t>2021-08-01T01:45:42.771Z</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>2025-08-18T23:48:36.388Z</t>
+        </is>
+      </c>
+      <c r="F888" t="n">
+        <v>0</v>
+      </c>
+      <c r="G888" t="n">
+        <v>45</v>
+      </c>
+      <c r="H888" t="n">
+        <v>7430</v>
+      </c>
+      <c r="I888" t="n">
+        <v>6</v>
+      </c>
+      <c r="J888" t="n">
+        <v>7</v>
+      </c>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M888" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N888" t="inlineStr">
+        <is>
+          <t>1478天</t>
+        </is>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>Finishing Touch - Art Studio ＆ Gallery</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>wrld_93dc2a1f-60f6-474f-ba8b-f86ad2fd8025</t>
+        </is>
+      </c>
+      <c r="D889" t="inlineStr">
+        <is>
+          <t>2024-08-23T19:32:22.849Z</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>2025-08-07T22:14:29.214Z</t>
+        </is>
+      </c>
+      <c r="F889" t="n">
+        <v>0</v>
+      </c>
+      <c r="G889" t="n">
+        <v>80</v>
+      </c>
+      <c r="H889" t="n">
+        <v>11293</v>
+      </c>
+      <c r="I889" t="n">
+        <v>5</v>
+      </c>
+      <c r="J889" t="n">
+        <v>7</v>
+      </c>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>322天</t>
+        </is>
+      </c>
+      <c r="M889" t="inlineStr">
+        <is>
+          <t>11天</t>
+        </is>
+      </c>
+      <c r="N889" t="inlineStr">
+        <is>
+          <t>360天</t>
+        </is>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>［Initial D］ Tsukuba Fruits Line</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>wrld_7216ef73-8f3a-4e0c-89ae-5796d1beedfb</t>
+        </is>
+      </c>
+      <c r="D890" t="inlineStr">
+        <is>
+          <t>2019-04-22T10:06:15.941Z</t>
+        </is>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>2025-04-16T19:03:51.545Z</t>
+        </is>
+      </c>
+      <c r="F890" t="n">
+        <v>0</v>
+      </c>
+      <c r="G890" t="n">
+        <v>60</v>
+      </c>
+      <c r="H890" t="n">
+        <v>5585</v>
+      </c>
+      <c r="I890" t="n">
+        <v>4</v>
+      </c>
+      <c r="J890" t="n">
+        <v>7</v>
+      </c>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M890" t="inlineStr">
+        <is>
+          <t>124天</t>
+        </is>
+      </c>
+      <c r="N890" t="inlineStr">
+        <is>
+          <t>2310天</t>
+        </is>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>Jayson's The Amazing Digital Circus Avatars</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>wrld_c8f9bea7-bd21-4ad4-8df8-827e4518198a</t>
+        </is>
+      </c>
+      <c r="D891" t="inlineStr">
+        <is>
+          <t>2023-10-23T06:28:49.819Z</t>
+        </is>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>2024-05-15T18:04:08.635Z</t>
+        </is>
+      </c>
+      <c r="F891" t="n">
+        <v>0</v>
+      </c>
+      <c r="G891" t="n">
+        <v>64</v>
+      </c>
+      <c r="H891" t="n">
+        <v>8837</v>
+      </c>
+      <c r="I891" t="n">
+        <v>4</v>
+      </c>
+      <c r="J891" t="n">
+        <v>7</v>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M891" t="inlineStr">
+        <is>
+          <t>460天</t>
+        </is>
+      </c>
+      <c r="N891" t="inlineStr">
+        <is>
+          <t>665天</t>
+        </is>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>ChikuwaGP ⁄ NakedClass</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>wrld_e11b5790-0b92-4e82-9207-9989ca84c218</t>
+        </is>
+      </c>
+      <c r="D892" t="inlineStr">
+        <is>
+          <t>2024-04-10T01:47:06.317Z</t>
+        </is>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>2024-08-16T07:32:47.599Z</t>
+        </is>
+      </c>
+      <c r="F892" t="n">
+        <v>0</v>
+      </c>
+      <c r="G892" t="n">
+        <v>64</v>
+      </c>
+      <c r="H892" t="n">
+        <v>10091</v>
+      </c>
+      <c r="I892" t="n">
+        <v>4</v>
+      </c>
+      <c r="J892" t="n">
+        <v>7</v>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M892" t="inlineStr">
+        <is>
+          <t>367天</t>
+        </is>
+      </c>
+      <c r="N892" t="inlineStr">
+        <is>
+          <t>495天</t>
+        </is>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>Petal Colony -花の棲み家-</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>wrld_e90939a5-110d-446c-99a9-358f312325dd</t>
+        </is>
+      </c>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>2025-02-06T01:40:25.429Z</t>
+        </is>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>2025-02-13T08:48:27.258Z</t>
+        </is>
+      </c>
+      <c r="F893" t="n">
+        <v>0</v>
+      </c>
+      <c r="G893" t="n">
+        <v>12</v>
+      </c>
+      <c r="H893" t="n">
+        <v>4410</v>
+      </c>
+      <c r="I893" t="n">
+        <v>5</v>
+      </c>
+      <c r="J893" t="n">
+        <v>7</v>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="M893" t="inlineStr">
+        <is>
+          <t>186天</t>
+        </is>
+      </c>
+      <c r="N893" t="inlineStr">
+        <is>
+          <t>193天</t>
+        </is>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>Calls in the Wind</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>wrld_4ebfd4bc-1549-428b-830b-f099ebd45c6f</t>
+        </is>
+      </c>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>2025-05-08T05:38:50.340Z</t>
+        </is>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>2025-08-10T00:25:07.191Z</t>
+        </is>
+      </c>
+      <c r="F894" t="n">
+        <v>0</v>
+      </c>
+      <c r="G894" t="n">
+        <v>66</v>
+      </c>
+      <c r="H894" t="n">
+        <v>4522</v>
+      </c>
+      <c r="I894" t="n">
+        <v>5</v>
+      </c>
+      <c r="J894" t="n">
+        <v>7</v>
+      </c>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M894" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="N894" t="inlineStr">
+        <is>
+          <t>102天</t>
+        </is>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Spiritedspy's Avatar Vault</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>wrld_251b5983-cf2a-4a93-9489-38be6b06475e</t>
+        </is>
+      </c>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>2020-06-27T12:36:25.900Z</t>
+        </is>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>2022-01-27T06:46:01.085Z</t>
+        </is>
+      </c>
+      <c r="F895" t="n">
+        <v>0</v>
+      </c>
+      <c r="G895" t="n">
+        <v>80</v>
+      </c>
+      <c r="H895" t="n">
+        <v>40231</v>
+      </c>
+      <c r="I895" t="n">
+        <v>4</v>
+      </c>
+      <c r="J895" t="n">
+        <v>7</v>
+      </c>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M895" t="inlineStr">
+        <is>
+          <t>1299天</t>
+        </is>
+      </c>
+      <c r="N895" t="inlineStr">
+        <is>
+          <t>1878天</t>
+        </is>
+      </c>
+      <c r="O895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>The Amazing Digital Circus - Tent Recreation</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>wrld_3e32de85-b4c7-446a-a38b-2a971fd3ea8c</t>
+        </is>
+      </c>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>2023-10-17T05:10:28.631Z</t>
+        </is>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>2023-12-11T08:11:45.074Z</t>
+        </is>
+      </c>
+      <c r="F896" t="n">
+        <v>0</v>
+      </c>
+      <c r="G896" t="n">
+        <v>64</v>
+      </c>
+      <c r="H896" t="n">
+        <v>3703</v>
+      </c>
+      <c r="I896" t="n">
+        <v>4</v>
+      </c>
+      <c r="J896" t="n">
+        <v>7</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M896" t="inlineStr">
+        <is>
+          <t>616天</t>
+        </is>
+      </c>
+      <c r="N896" t="inlineStr">
+        <is>
+          <t>671天</t>
+        </is>
+      </c>
+      <c r="O896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Hutong Lounge ［CN⁄EN］</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>wrld_0da7daf7-e8d4-4283-853e-29e59ea65a6c</t>
+        </is>
+      </c>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>2023-07-19T09:16:43.650Z</t>
+        </is>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>2024-12-30T08:10:37.854Z</t>
+        </is>
+      </c>
+      <c r="F897" t="n">
+        <v>0</v>
+      </c>
+      <c r="G897" t="n">
+        <v>60</v>
+      </c>
+      <c r="H897" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I897" t="n">
+        <v>4</v>
+      </c>
+      <c r="J897" t="n">
+        <v>7</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M897" t="inlineStr">
+        <is>
+          <t>231天</t>
+        </is>
+      </c>
+      <c r="N897" t="inlineStr">
+        <is>
+          <t>761天</t>
+        </is>
+      </c>
+      <c r="O897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>［Initial D］ Akagi</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>wrld_dd812090-35a2-4768-90ed-efc9cdc1a277</t>
+        </is>
+      </c>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>2019-06-14T16:09:34.090Z</t>
+        </is>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>2024-09-29T14:47:54.057Z</t>
+        </is>
+      </c>
+      <c r="F898" t="n">
+        <v>0</v>
+      </c>
+      <c r="G898" t="n">
+        <v>60</v>
+      </c>
+      <c r="H898" t="n">
+        <v>5591</v>
+      </c>
+      <c r="I898" t="n">
+        <v>3</v>
+      </c>
+      <c r="J898" t="n">
+        <v>7</v>
+      </c>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M898" t="inlineStr">
+        <is>
+          <t>323天</t>
+        </is>
+      </c>
+      <c r="N898" t="inlineStr">
+        <is>
+          <t>2257天</t>
+        </is>
+      </c>
+      <c r="O898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>明月何时有2․1 How rare the moon‚ so round and clear</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>wrld_a7700e61-4792-48d9-b897-f20712365bf3</t>
+        </is>
+      </c>
+      <c r="D899" t="inlineStr">
+        <is>
+          <t>2024-09-09T11:43:13.319Z</t>
+        </is>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>2025-07-29T17:41:41.611Z</t>
+        </is>
+      </c>
+      <c r="F899" t="n">
+        <v>0</v>
+      </c>
+      <c r="G899" t="n">
+        <v>60</v>
+      </c>
+      <c r="H899" t="n">
+        <v>6320</v>
+      </c>
+      <c r="I899" t="n">
+        <v>4</v>
+      </c>
+      <c r="J899" t="n">
+        <v>7</v>
+      </c>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M899" t="inlineStr">
+        <is>
+          <t>20天</t>
+        </is>
+      </c>
+      <c r="N899" t="inlineStr">
+        <is>
+          <t>343天</t>
+        </is>
+      </c>
+      <c r="O899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>C's Rainy House</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>wrld_8fc89030-8c27-4c25-bece-4c4e2c8dcb11</t>
+        </is>
+      </c>
+      <c r="D900" t="inlineStr">
+        <is>
+          <t>2022-03-06T14:30:21.176Z</t>
+        </is>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>2022-04-15T13:05:51.862Z</t>
+        </is>
+      </c>
+      <c r="F900" t="n">
+        <v>0</v>
+      </c>
+      <c r="G900" t="n">
+        <v>32</v>
+      </c>
+      <c r="H900" t="n">
+        <v>1108</v>
+      </c>
+      <c r="I900" t="n">
+        <v>3</v>
+      </c>
+      <c r="J900" t="n">
+        <v>7</v>
+      </c>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M900" t="inlineStr">
+        <is>
+          <t>1221天</t>
+        </is>
+      </c>
+      <c r="N900" t="inlineStr">
+        <is>
+          <t>1261天</t>
+        </is>
+      </c>
+      <c r="O900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>［Initial D］ Tsubaki Line</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>wrld_1510345f-38f3-48db-ae47-000b5e22cb7d</t>
+        </is>
+      </c>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>2020-06-07T12:56:56.908Z</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>2025-04-18T04:09:44.476Z</t>
+        </is>
+      </c>
+      <c r="F901" t="n">
+        <v>0</v>
+      </c>
+      <c r="G901" t="n">
+        <v>80</v>
+      </c>
+      <c r="H901" t="n">
+        <v>6101</v>
+      </c>
+      <c r="I901" t="n">
+        <v>4</v>
+      </c>
+      <c r="J901" t="n">
+        <v>7</v>
+      </c>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M901" t="inlineStr">
+        <is>
+          <t>122天</t>
+        </is>
+      </c>
+      <c r="N901" t="inlineStr">
+        <is>
+          <t>1898天</t>
+        </is>
+      </c>
+      <c r="O901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>［Initial D］ Irohazaka</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>wrld_b52d7669-cf0d-4392-8900-c3e79d16ccbc</t>
+        </is>
+      </c>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>2024-09-05T08:06:22.647Z</t>
+        </is>
+      </c>
+      <c r="F902" t="n">
+        <v>0</v>
+      </c>
+      <c r="G902" t="n">
+        <v>30</v>
+      </c>
+      <c r="H902" t="n">
+        <v>6601</v>
+      </c>
+      <c r="I902" t="n">
+        <v>4</v>
+      </c>
+      <c r="J902" t="n">
+        <v>7</v>
+      </c>
+      <c r="M902" t="inlineStr">
+        <is>
+          <t>347天</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>武山屋通 斗地主 ［CN］853 s Udon Chinese poker DouDizhu 闘地主</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>wrld_a9889c0d-a791-44e4-9650-e755709406f9</t>
+        </is>
+      </c>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>2022-04-13T13:44:44.731Z</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>2023-11-01T08:35:56.964Z</t>
+        </is>
+      </c>
+      <c r="F903" t="n">
+        <v>0</v>
+      </c>
+      <c r="G903" t="n">
+        <v>32</v>
+      </c>
+      <c r="H903" t="n">
+        <v>3683</v>
+      </c>
+      <c r="I903" t="n">
+        <v>4</v>
+      </c>
+      <c r="J903" t="n">
+        <v>7</v>
+      </c>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M903" t="inlineStr">
+        <is>
+          <t>656天</t>
+        </is>
+      </c>
+      <c r="N903" t="inlineStr">
+        <is>
+          <t>1223天</t>
+        </is>
+      </c>
+      <c r="O903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>裏六甲 -UraRokkou-</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>wrld_2a3df68a-86a8-4949-86a3-f4cac379ac0a</t>
+        </is>
+      </c>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>2024-07-12T23:30:23.301Z</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>2025-05-24T12:43:22.822Z</t>
+        </is>
+      </c>
+      <c r="F904" t="n">
+        <v>0</v>
+      </c>
+      <c r="G904" t="n">
+        <v>64</v>
+      </c>
+      <c r="H904" t="n">
+        <v>4457</v>
+      </c>
+      <c r="I904" t="n">
+        <v>5</v>
+      </c>
+      <c r="J904" t="n">
+        <v>7</v>
+      </c>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M904" t="inlineStr">
+        <is>
+          <t>86天</t>
+        </is>
+      </c>
+      <c r="N904" t="inlineStr">
+        <is>
+          <t>402天</t>
+        </is>
+      </c>
+      <c r="O904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>［Initial D］ Hakone Turnpike</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>wrld_f409e2c9-3ddf-4ec2-981e-b41fd9c6687e</t>
+        </is>
+      </c>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>2019-09-10T21:07:01.741Z</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>2025-04-21T01:07:18.610Z</t>
+        </is>
+      </c>
+      <c r="F905" t="n">
+        <v>0</v>
+      </c>
+      <c r="G905" t="n">
+        <v>60</v>
+      </c>
+      <c r="H905" t="n">
+        <v>5207</v>
+      </c>
+      <c r="I905" t="n">
+        <v>4</v>
+      </c>
+      <c r="J905" t="n">
+        <v>7</v>
+      </c>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M905" t="inlineStr">
+        <is>
+          <t>119天</t>
+        </is>
+      </c>
+      <c r="N905" t="inlineStr">
+        <is>
+          <t>2169天</t>
+        </is>
+      </c>
+      <c r="O905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>Desert Valley Drive CVS2</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>wrld_4c07ad74-0164-4b89-8173-a08565df27fa</t>
+        </is>
+      </c>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>2025-05-31T03:54:01.089Z</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>2025-07-27T09:17:26.777Z</t>
+        </is>
+      </c>
+      <c r="F906" t="n">
+        <v>0</v>
+      </c>
+      <c r="G906" t="n">
+        <v>50</v>
+      </c>
+      <c r="H906" t="n">
+        <v>7557</v>
+      </c>
+      <c r="I906" t="n">
+        <v>5</v>
+      </c>
+      <c r="J906" t="n">
+        <v>6</v>
+      </c>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M906" t="inlineStr">
+        <is>
+          <t>22天</t>
+        </is>
+      </c>
+      <c r="N906" t="inlineStr">
+        <is>
+          <t>79天</t>
+        </is>
+      </c>
+      <c r="O906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>Projekt˸ CAS</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>wrld_e5a437fe-56ac-445d-9822-899986067428</t>
+        </is>
+      </c>
+      <c r="D907" t="inlineStr">
+        <is>
+          <t>2024-12-25T05:14:10.924Z</t>
+        </is>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>2025-01-03T01:38:07.078Z</t>
+        </is>
+      </c>
+      <c r="F907" t="n">
+        <v>0</v>
+      </c>
+      <c r="G907" t="n">
+        <v>64</v>
+      </c>
+      <c r="H907" t="n">
+        <v>7488</v>
+      </c>
+      <c r="I907" t="n">
+        <v>4</v>
+      </c>
+      <c r="J907" t="n">
+        <v>6</v>
+      </c>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M907" t="inlineStr">
+        <is>
+          <t>227天</t>
+        </is>
+      </c>
+      <c r="N907" t="inlineStr">
+        <is>
+          <t>236天</t>
+        </is>
+      </c>
+      <c r="O907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>Liminal alchove</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>wrld_f4c91d3f-f9e8-4a3a-8248-fc1484aa3cfe</t>
+        </is>
+      </c>
+      <c r="D908" t="inlineStr">
+        <is>
+          <t>2024-11-14T12:55:47.290Z</t>
+        </is>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>2025-04-12T05:59:05.755Z</t>
+        </is>
+      </c>
+      <c r="F908" t="n">
+        <v>0</v>
+      </c>
+      <c r="G908" t="n">
+        <v>40</v>
+      </c>
+      <c r="H908" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I908" t="n">
+        <v>5</v>
+      </c>
+      <c r="J908" t="n">
+        <v>6</v>
+      </c>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M908" t="inlineStr">
+        <is>
+          <t>128天</t>
+        </is>
+      </c>
+      <c r="N908" t="inlineStr">
+        <is>
+          <t>277天</t>
+        </is>
+      </c>
+      <c r="O908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>CoS Room</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>wrld_b85f20cc-0a68-4d6b-b6b1-e722483a339b</t>
+        </is>
+      </c>
+      <c r="D909" t="inlineStr">
+        <is>
+          <t>2021-12-19T21:03:53.565Z</t>
+        </is>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>2021-12-17T10:52:07.033Z</t>
+        </is>
+      </c>
+      <c r="F909" t="n">
+        <v>0</v>
+      </c>
+      <c r="G909" t="n">
+        <v>16</v>
+      </c>
+      <c r="H909" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I909" t="n">
+        <v>4</v>
+      </c>
+      <c r="J909" t="n">
+        <v>6</v>
+      </c>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M909" t="inlineStr">
+        <is>
+          <t>1340天</t>
+        </is>
+      </c>
+      <c r="N909" t="inlineStr">
+        <is>
+          <t>1338天</t>
+        </is>
+      </c>
+      <c r="O909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>SunDown</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>wrld_c54add9f-29b2-4b60-b051-e4999966ebc8</t>
+        </is>
+      </c>
+      <c r="D910" t="inlineStr">
+        <is>
+          <t>2023-09-09T14:17:32.516Z</t>
+        </is>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>2025-04-29T05:35:43.868Z</t>
+        </is>
+      </c>
+      <c r="F910" t="n">
+        <v>0</v>
+      </c>
+      <c r="G910" t="n">
+        <v>80</v>
+      </c>
+      <c r="H910" t="n">
+        <v>75214</v>
+      </c>
+      <c r="I910" t="n">
+        <v>6</v>
+      </c>
+      <c r="J910" t="n">
+        <v>8</v>
+      </c>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M910" t="inlineStr">
+        <is>
+          <t>112天</t>
+        </is>
+      </c>
+      <c r="N910" t="inlineStr">
+        <is>
+          <t>709天</t>
+        </is>
+      </c>
+      <c r="O910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>［Initial D］ Myogi （Circuit）</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>wrld_78e566af-c5f4-4654-9baf-98209560fbb9</t>
+        </is>
+      </c>
+      <c r="D911" t="inlineStr">
+        <is>
+          <t>2022-12-23T19:00:48.552Z</t>
+        </is>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>2025-01-14T12:45:26.684Z</t>
+        </is>
+      </c>
+      <c r="F911" t="n">
+        <v>0</v>
+      </c>
+      <c r="G911" t="n">
+        <v>30</v>
+      </c>
+      <c r="H911" t="n">
+        <v>60936</v>
+      </c>
+      <c r="I911" t="n">
+        <v>6</v>
+      </c>
+      <c r="J911" t="n">
+        <v>8</v>
+      </c>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M911" t="inlineStr">
+        <is>
+          <t>216天</t>
+        </is>
+      </c>
+      <c r="N911" t="inlineStr">
+        <is>
+          <t>969天</t>
+        </is>
+      </c>
+      <c r="O911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>Padded Room</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>wrld_6295d6c6-2e61-444e-87f2-51c378b2b794</t>
+        </is>
+      </c>
+      <c r="D912" t="inlineStr">
+        <is>
+          <t>2023-02-06T01:01:45.622Z</t>
+        </is>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>2024-08-18T19:37:38.312Z</t>
+        </is>
+      </c>
+      <c r="F912" t="n">
+        <v>0</v>
+      </c>
+      <c r="G912" t="n">
+        <v>64</v>
+      </c>
+      <c r="H912" t="n">
+        <v>27264</v>
+      </c>
+      <c r="I912" t="n">
+        <v>6</v>
+      </c>
+      <c r="J912" t="n">
+        <v>8</v>
+      </c>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M912" t="inlineStr">
+        <is>
+          <t>365天</t>
+        </is>
+      </c>
+      <c r="N912" t="inlineStr">
+        <is>
+          <t>925天</t>
+        </is>
+      </c>
+      <c r="O912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>Wobblins' Digital Circus</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>wrld_29ed52b4-f39f-4874-a012-c95d8eff02a2</t>
+        </is>
+      </c>
+      <c r="D913" t="inlineStr">
+        <is>
+          <t>2024-04-16T03:38:25.239Z</t>
+        </is>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>2025-08-16T06:12:16.238Z</t>
+        </is>
+      </c>
+      <c r="F913" t="n">
+        <v>0</v>
+      </c>
+      <c r="G913" t="n">
+        <v>80</v>
+      </c>
+      <c r="H913" t="n">
+        <v>27024</v>
+      </c>
+      <c r="I913" t="n">
+        <v>7</v>
+      </c>
+      <c r="J913" t="n">
+        <v>8</v>
+      </c>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M913" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="N913" t="inlineStr">
+        <is>
+          <t>490天</t>
+        </is>
+      </c>
+      <c r="O913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>XOXO</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>wrld_ad40aaf3-65ed-4fbc-b6fd-3d59135048cb</t>
+        </is>
+      </c>
+      <c r="D914" t="inlineStr">
+        <is>
+          <t>2023-04-30T05:43:56.147Z</t>
+        </is>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>2023-04-30T02:45:32.643Z</t>
+        </is>
+      </c>
+      <c r="F914" t="n">
+        <v>0</v>
+      </c>
+      <c r="G914" t="n">
+        <v>80</v>
+      </c>
+      <c r="H914" t="n">
+        <v>18209</v>
+      </c>
+      <c r="I914" t="n">
+        <v>5</v>
+      </c>
+      <c r="J914" t="n">
+        <v>8</v>
+      </c>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M914" t="inlineStr">
+        <is>
+          <t>842天</t>
+        </is>
+      </c>
+      <c r="N914" t="inlineStr">
+        <is>
+          <t>842天</t>
+        </is>
+      </c>
+      <c r="O914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>［Initial D］ Lake Akina</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>wrld_fff707c6-bec1-442c-b4d6-41a707166f37</t>
+        </is>
+      </c>
+      <c r="D915" t="inlineStr">
+        <is>
+          <t>2019-05-16T12:43:34.254Z</t>
+        </is>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>2024-09-05T12:20:29.200Z</t>
+        </is>
+      </c>
+      <c r="F915" t="n">
+        <v>0</v>
+      </c>
+      <c r="G915" t="n">
+        <v>80</v>
+      </c>
+      <c r="H915" t="n">
+        <v>39704</v>
+      </c>
+      <c r="I915" t="n">
+        <v>5</v>
+      </c>
+      <c r="J915" t="n">
+        <v>8</v>
+      </c>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M915" t="inlineStr">
+        <is>
+          <t>347天</t>
+        </is>
+      </c>
+      <c r="N915" t="inlineStr">
+        <is>
+          <t>2286天</t>
+        </is>
+      </c>
+      <c r="O915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>THE AMAZING DIGITAL CIRCUS</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>wrld_4b412aae-2e51-4ef4-854d-884b47b5a134</t>
+        </is>
+      </c>
+      <c r="D916" t="inlineStr">
+        <is>
+          <t>2023-11-04T12:29:08.630Z</t>
+        </is>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>2025-08-16T17:35:01.481Z</t>
+        </is>
+      </c>
+      <c r="F916" t="n">
+        <v>0</v>
+      </c>
+      <c r="G916" t="n">
+        <v>80</v>
+      </c>
+      <c r="H916" t="n">
+        <v>18633</v>
+      </c>
+      <c r="I916" t="n">
+        <v>6</v>
+      </c>
+      <c r="J916" t="n">
+        <v>8</v>
+      </c>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M916" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="N916" t="inlineStr">
+        <is>
+          <t>653天</t>
+        </is>
+      </c>
+      <c r="O916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>Deathrun v1․21</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>wrld_09e0ce18-45d2-4a26-92c5-e28034194e40</t>
+        </is>
+      </c>
+      <c r="D917" t="inlineStr">
+        <is>
+          <t>2018-11-10T01:03:45.625Z</t>
+        </is>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>2019-12-07T05:23:16.004Z</t>
+        </is>
+      </c>
+      <c r="F917" t="n">
+        <v>0</v>
+      </c>
+      <c r="G917" t="n">
+        <v>36</v>
+      </c>
+      <c r="H917" t="n">
+        <v>10317</v>
+      </c>
+      <c r="I917" t="n">
+        <v>3</v>
+      </c>
+      <c r="J917" t="n">
+        <v>8</v>
+      </c>
+      <c r="M917" t="inlineStr">
+        <is>
+          <t>2082天</t>
+        </is>
+      </c>
+      <c r="N917" t="inlineStr">
+        <is>
+          <t>2474天</t>
+        </is>
+      </c>
+      <c r="O917" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>Shotgun Roulette 2 - 4 Players Like Buckshot Roulette PVP［EN‚CHS‚JA］</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>wrld_763c51b6-d96e-49ed-b340-7dadb1d68e78</t>
+        </is>
+      </c>
+      <c r="D918" t="inlineStr">
+        <is>
+          <t>2024-02-14T15:22:33.613Z</t>
+        </is>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>2024-12-22T11:02:49.549Z</t>
+        </is>
+      </c>
+      <c r="F918" t="n">
+        <v>0</v>
+      </c>
+      <c r="G918" t="n">
+        <v>80</v>
+      </c>
+      <c r="H918" t="n">
+        <v>38976</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4</v>
+      </c>
+      <c r="J918" t="n">
+        <v>7</v>
+      </c>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M918" t="inlineStr">
+        <is>
+          <t>239天</t>
+        </is>
+      </c>
+      <c r="N918" t="inlineStr">
+        <is>
+          <t>551天</t>
+        </is>
+      </c>
+      <c r="O918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>Pinggiran Kota Indonesia</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>wrld_21a2cb6d-1f0a-4d2c-b520-88c375b188b5</t>
+        </is>
+      </c>
+      <c r="D919" t="inlineStr">
+        <is>
+          <t>2022-11-30T17:47:02.298Z</t>
+        </is>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>2025-06-07T13:25:10.844Z</t>
+        </is>
+      </c>
+      <c r="F919" t="n">
+        <v>0</v>
+      </c>
+      <c r="G919" t="n">
+        <v>80</v>
+      </c>
+      <c r="H919" t="n">
+        <v>3618</v>
+      </c>
+      <c r="I919" t="n">
+        <v>6</v>
+      </c>
+      <c r="J919" t="n">
+        <v>7</v>
+      </c>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M919" t="inlineStr">
+        <is>
+          <t>72天</t>
+        </is>
+      </c>
+      <c r="N919" t="inlineStr">
+        <is>
+          <t>992天</t>
+        </is>
+      </c>
+      <c r="O919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>Cozy Room</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>wrld_2b59723d-c41c-44a0-8c94-ec2fe98e28ef</t>
+        </is>
+      </c>
+      <c r="D920" t="inlineStr">
+        <is>
+          <t>2021-10-26T11:16:20.473Z</t>
+        </is>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>2022-08-10T21:33:47.932Z</t>
+        </is>
+      </c>
+      <c r="F920" t="n">
+        <v>0</v>
+      </c>
+      <c r="G920" t="n">
+        <v>32</v>
+      </c>
+      <c r="H920" t="n">
+        <v>8044</v>
+      </c>
+      <c r="I920" t="n">
+        <v>5</v>
+      </c>
+      <c r="J920" t="n">
+        <v>7</v>
+      </c>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>157天</t>
+        </is>
+      </c>
+      <c r="M920" t="inlineStr">
+        <is>
+          <t>1104天</t>
+        </is>
+      </c>
+      <c r="N920" t="inlineStr">
+        <is>
+          <t>1392天</t>
+        </is>
+      </c>
+      <c r="O920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>COMPLEX ULTRA ［FR］FRENCH</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>wrld_b54580b5-ad67-4c59-b67e-d684eb42fda7</t>
+        </is>
+      </c>
+      <c r="D921" t="inlineStr">
+        <is>
+          <t>2022-10-28T20:13:20.506Z</t>
+        </is>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>2025-08-18T19:31:59.530Z</t>
+        </is>
+      </c>
+      <c r="F921" t="n">
+        <v>0</v>
+      </c>
+      <c r="G921" t="n">
+        <v>80</v>
+      </c>
+      <c r="H921" t="n">
+        <v>5890</v>
+      </c>
+      <c r="I921" t="n">
+        <v>6</v>
+      </c>
+      <c r="J921" t="n">
+        <v>7</v>
+      </c>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M921" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N921" t="inlineStr">
+        <is>
+          <t>1025天</t>
+        </is>
+      </c>
+      <c r="O921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>The Amazing Digital Circus ǃ</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>wrld_754e5770-a185-46a5-8fce-24157bd599f5</t>
+        </is>
+      </c>
+      <c r="D922" t="inlineStr">
+        <is>
+          <t>2023-10-17T20:40:58.839Z</t>
+        </is>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>2024-03-22T22:02:13.629Z</t>
+        </is>
+      </c>
+      <c r="F922" t="n">
+        <v>0</v>
+      </c>
+      <c r="G922" t="n">
+        <v>64</v>
+      </c>
+      <c r="H922" t="n">
+        <v>13111</v>
+      </c>
+      <c r="I922" t="n">
+        <v>4</v>
+      </c>
+      <c r="J922" t="n">
+        <v>7</v>
+      </c>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M922" t="inlineStr">
+        <is>
+          <t>514天</t>
+        </is>
+      </c>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>671天</t>
+        </is>
+      </c>
+      <c r="O922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Aircraft Carrier Jets˸ F⁄A-18F Super Hornet Block III</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>wrld_ad8de2fb-7523-4833-9506-0a58f3a9e271</t>
+        </is>
+      </c>
+      <c r="D923" t="inlineStr">
+        <is>
+          <t>2022-02-14T14:39:01.599Z</t>
+        </is>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>2024-11-10T18:17:01.809Z</t>
+        </is>
+      </c>
+      <c r="F923" t="n">
+        <v>0</v>
+      </c>
+      <c r="G923" t="n">
+        <v>80</v>
+      </c>
+      <c r="H923" t="n">
+        <v>19811</v>
+      </c>
+      <c r="I923" t="n">
+        <v>4</v>
+      </c>
+      <c r="J923" t="n">
+        <v>7</v>
+      </c>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M923" t="inlineStr">
+        <is>
+          <t>281天</t>
+        </is>
+      </c>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>1281天</t>
+        </is>
+      </c>
+      <c r="O923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>［Initial D］ Akina</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>wrld_9425872f-03fe-4941-9c69-db6765b0d0a6</t>
+        </is>
+      </c>
+      <c r="D924" t="inlineStr">
+        <is>
+          <t>2019-04-11T23:11:22.369Z</t>
+        </is>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>2025-01-03T03:07:09.757Z</t>
+        </is>
+      </c>
+      <c r="F924" t="n">
+        <v>0</v>
+      </c>
+      <c r="G924" t="n">
+        <v>80</v>
+      </c>
+      <c r="H924" t="n">
+        <v>21277</v>
+      </c>
+      <c r="I924" t="n">
+        <v>5</v>
+      </c>
+      <c r="J924" t="n">
+        <v>7</v>
+      </c>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="M924" t="inlineStr">
+        <is>
+          <t>228天</t>
+        </is>
+      </c>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>2321天</t>
+        </is>
+      </c>
+      <c r="O924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>【CBS対応】悠々の間</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>wrld_7eb91216-9fac-4481-a3cd-5f9b9d7d3a2d</t>
+        </is>
+      </c>
+      <c r="D925" t="inlineStr">
+        <is>
+          <t>2024-09-11T10:14:09.782Z</t>
+        </is>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>2025-08-12T00:47:35.647Z</t>
+        </is>
+      </c>
+      <c r="F925" t="n">
+        <v>0</v>
+      </c>
+      <c r="G925" t="n">
+        <v>32</v>
+      </c>
+      <c r="H925" t="n">
+        <v>1753</v>
+      </c>
+      <c r="I925" t="n">
+        <v>5</v>
+      </c>
+      <c r="J925" t="n">
+        <v>7</v>
+      </c>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M925" t="inlineStr">
+        <is>
+          <t>7天</t>
+        </is>
+      </c>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>341天</t>
+        </is>
+      </c>
+      <c r="O925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>［Initial D］ Usui （Arcade Stage Circuit Ver․ 2）</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>wrld_d4e913da-c552-4c1a-8604-d50f1cc1cde5</t>
+        </is>
+      </c>
+      <c r="D926" t="inlineStr">
+        <is>
+          <t>2020-06-15T03:25:30.211Z</t>
+        </is>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>2024-09-13T10:38:52.061Z</t>
+        </is>
+      </c>
+      <c r="F926" t="n">
+        <v>0</v>
+      </c>
+      <c r="G926" t="n">
+        <v>60</v>
+      </c>
+      <c r="H926" t="n">
+        <v>13760</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4</v>
+      </c>
+      <c r="J926" t="n">
+        <v>7</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M926" t="inlineStr">
+        <is>
+          <t>339天</t>
+        </is>
+      </c>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>1891天</t>
+        </is>
+      </c>
+      <c r="O926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>［Initial D］ Myogi （Arcade Stage Ver․）</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>wrld_0e88c6a2-1742-46d0-a685-c51628be280e</t>
+        </is>
+      </c>
+      <c r="D927" t="inlineStr">
+        <is>
+          <t>2020-06-22T09:05:03.396Z</t>
+        </is>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>2025-05-06T02:12:03.860Z</t>
+        </is>
+      </c>
+      <c r="F927" t="n">
+        <v>0</v>
+      </c>
+      <c r="G927" t="n">
+        <v>40</v>
+      </c>
+      <c r="H927" t="n">
+        <v>10221</v>
+      </c>
+      <c r="I927" t="n">
+        <v>5</v>
+      </c>
+      <c r="J927" t="n">
+        <v>7</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M927" t="inlineStr">
+        <is>
+          <t>105天</t>
+        </is>
+      </c>
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>1883天</t>
+        </is>
+      </c>
+      <c r="O927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>Cougar Circuit Drift CVS2</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>wrld_e4ecd2a7-2165-407a-80b5-2dcbebca0f7e</t>
+        </is>
+      </c>
+      <c r="D928" t="inlineStr">
+        <is>
+          <t>2025-06-09T17:15:52.088Z</t>
+        </is>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>2025-08-18T19:21:34.975Z</t>
+        </is>
+      </c>
+      <c r="F928" t="n">
+        <v>0</v>
+      </c>
+      <c r="G928" t="n">
+        <v>64</v>
+      </c>
+      <c r="H928" t="n">
+        <v>12482</v>
+      </c>
+      <c r="I928" t="n">
+        <v>6</v>
+      </c>
+      <c r="J928" t="n">
+        <v>7</v>
+      </c>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M928" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N928" t="inlineStr">
+        <is>
+          <t>70天</t>
+        </is>
+      </c>
+      <c r="O928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>【CBS対応】地下労働場</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>wrld_314d9a11-c2a6-477b-866c-0f820124a80e</t>
+        </is>
+      </c>
+      <c r="D929" t="inlineStr">
+        <is>
+          <t>2023-06-12T15:15:49.739Z</t>
+        </is>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>2025-08-09T13:01:35.768Z</t>
+        </is>
+      </c>
+      <c r="F929" t="n">
+        <v>0</v>
+      </c>
+      <c r="G929" t="n">
+        <v>60</v>
+      </c>
+      <c r="H929" t="n">
+        <v>3683</v>
+      </c>
+      <c r="I929" t="n">
+        <v>5</v>
+      </c>
+      <c r="J929" t="n">
+        <v>7</v>
+      </c>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M929" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="N929" t="inlineStr">
+        <is>
+          <t>798天</t>
+        </is>
+      </c>
+      <c r="O929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>A Morioh Station JOJO Bizarre Adventure Avatars 2․1 PC - QUEST</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>wrld_ec628907-03cb-47cc-baef-08da19b0e9f7</t>
+        </is>
+      </c>
+      <c r="D930" t="inlineStr">
+        <is>
+          <t>2019-05-30T05:15:29.868Z</t>
+        </is>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>2021-01-08T04:59:09.570Z</t>
+        </is>
+      </c>
+      <c r="F930" t="n">
+        <v>0</v>
+      </c>
+      <c r="G930" t="n">
+        <v>42</v>
+      </c>
+      <c r="H930" t="n">
+        <v>18552</v>
+      </c>
+      <c r="I930" t="n">
+        <v>3</v>
+      </c>
+      <c r="J930" t="n">
+        <v>7</v>
+      </c>
+      <c r="M930" t="inlineStr">
+        <is>
+          <t>1684天</t>
+        </is>
+      </c>
+      <c r="N930" t="inlineStr">
+        <is>
+          <t>2273天</t>
+        </is>
+      </c>
+      <c r="O930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>Cozy Keep</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>wrld_2fa34ac8-7ac5-40a2-a4ce-71adc9e5af9c</t>
+        </is>
+      </c>
+      <c r="D931" t="inlineStr">
+        <is>
+          <t>2024-08-29T01:39:15.508Z</t>
+        </is>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>2024-09-03T06:01:30.446Z</t>
+        </is>
+      </c>
+      <c r="F931" t="n">
+        <v>0</v>
+      </c>
+      <c r="G931" t="n">
+        <v>80</v>
+      </c>
+      <c r="H931" t="n">
+        <v>3559</v>
+      </c>
+      <c r="I931" t="n">
+        <v>5</v>
+      </c>
+      <c r="J931" t="n">
+        <v>7</v>
+      </c>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M931" t="inlineStr">
+        <is>
+          <t>349天</t>
+        </is>
+      </c>
+      <c r="N931" t="inlineStr">
+        <is>
+          <t>355天</t>
+        </is>
+      </c>
+      <c r="O931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>Dream Boat</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>wrld_6e561319-3aeb-4b54-95f3-ae98f534a0e1</t>
+        </is>
+      </c>
+      <c r="D932" t="inlineStr">
+        <is>
+          <t>2024-07-29T09:19:01.579Z</t>
+        </is>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>2024-09-16T23:03:42.956Z</t>
+        </is>
+      </c>
+      <c r="F932" t="n">
+        <v>0</v>
+      </c>
+      <c r="G932" t="n">
+        <v>80</v>
+      </c>
+      <c r="H932" t="n">
+        <v>9339</v>
+      </c>
+      <c r="I932" t="n">
+        <v>5</v>
+      </c>
+      <c r="J932" t="n">
+        <v>7</v>
+      </c>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M932" t="inlineStr">
+        <is>
+          <t>336天</t>
+        </is>
+      </c>
+      <c r="N932" t="inlineStr">
+        <is>
+          <t>385天</t>
+        </is>
+      </c>
+      <c r="O932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>Dandy World's RP ｜｜ CHECK DISC</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>wrld_1f361e27-7cae-4981-ba95-f7b0e80639a2</t>
+        </is>
+      </c>
+      <c r="D933" t="inlineStr">
+        <is>
+          <t>2024-07-17T03:04:21.804Z</t>
+        </is>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>2025-07-10T05:50:30.796Z</t>
+        </is>
+      </c>
+      <c r="F933" t="n">
+        <v>0</v>
+      </c>
+      <c r="G933" t="n">
+        <v>62</v>
+      </c>
+      <c r="H933" t="n">
+        <v>4508</v>
+      </c>
+      <c r="I933" t="n">
+        <v>5</v>
+      </c>
+      <c r="J933" t="n">
+        <v>7</v>
+      </c>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M933" t="inlineStr">
+        <is>
+          <t>40天</t>
+        </is>
+      </c>
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>398天</t>
+        </is>
+      </c>
+      <c r="O933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>PeekABowo's Avatars</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>wrld_1335985a-3f47-487d-8d71-e19b4a6688d6</t>
+        </is>
+      </c>
+      <c r="D934" t="inlineStr">
+        <is>
+          <t>2023-03-10T16:17:20.051Z</t>
+        </is>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>2025-06-03T20:58:07.168Z</t>
+        </is>
+      </c>
+      <c r="F934" t="n">
+        <v>0</v>
+      </c>
+      <c r="G934" t="n">
+        <v>64</v>
+      </c>
+      <c r="H934" t="n">
+        <v>35346</v>
+      </c>
+      <c r="I934" t="n">
+        <v>4</v>
+      </c>
+      <c r="J934" t="n">
+        <v>7</v>
+      </c>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M934" t="inlineStr">
+        <is>
+          <t>76天</t>
+        </is>
+      </c>
+      <c r="N934" t="inlineStr">
+        <is>
+          <t>892天</t>
+        </is>
+      </c>
+      <c r="O934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Circuit Master puzzle game ＆ maze</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>wrld_bed45248-5d93-433f-8aa3-5517bf8ca464</t>
+        </is>
+      </c>
+      <c r="D935" t="inlineStr">
+        <is>
+          <t>2021-09-28T01:45:55.545Z</t>
+        </is>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>2023-08-09T16:02:06.602Z</t>
+        </is>
+      </c>
+      <c r="F935" t="n">
+        <v>0</v>
+      </c>
+      <c r="G935" t="n">
+        <v>64</v>
+      </c>
+      <c r="H935" t="n">
+        <v>9191</v>
+      </c>
+      <c r="I935" t="n">
+        <v>4</v>
+      </c>
+      <c r="J935" t="n">
+        <v>7</v>
+      </c>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>3天</t>
+        </is>
+      </c>
+      <c r="M935" t="inlineStr">
+        <is>
+          <t>740天</t>
+        </is>
+      </c>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>1421天</t>
+        </is>
+      </c>
+      <c r="O935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>More Than Life</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>wrld_473eff4b-2646-4cd4-ac9b-2bc0eb272d66</t>
+        </is>
+      </c>
+      <c r="D936" t="inlineStr">
+        <is>
+          <t>2024-08-10T08:48:39.092Z</t>
+        </is>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>2024-08-11T00:10:16.270Z</t>
+        </is>
+      </c>
+      <c r="F936" t="n">
+        <v>0</v>
+      </c>
+      <c r="G936" t="n">
+        <v>80</v>
+      </c>
+      <c r="H936" t="n">
+        <v>4845</v>
+      </c>
+      <c r="I936" t="n">
+        <v>5</v>
+      </c>
+      <c r="J936" t="n">
+        <v>7</v>
+      </c>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M936" t="inlineStr">
+        <is>
+          <t>373天</t>
+        </is>
+      </c>
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>373天</t>
+        </is>
+      </c>
+      <c r="O936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>City Night Drive</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>wrld_e6b6ea55-7011-4cbe-b627-70336271550f</t>
+        </is>
+      </c>
+      <c r="D937" t="inlineStr">
+        <is>
+          <t>2024-03-10T16:46:01.752Z</t>
+        </is>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>2025-05-18T16:25:16.099Z</t>
+        </is>
+      </c>
+      <c r="F937" t="n">
+        <v>0</v>
+      </c>
+      <c r="G937" t="n">
+        <v>64</v>
+      </c>
+      <c r="H937" t="n">
+        <v>12588</v>
+      </c>
+      <c r="I937" t="n">
+        <v>4</v>
+      </c>
+      <c r="J937" t="n">
+        <v>7</v>
+      </c>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M937" t="inlineStr">
+        <is>
+          <t>92天</t>
+        </is>
+      </c>
+      <c r="N937" t="inlineStr">
+        <is>
+          <t>526天</t>
+        </is>
+      </c>
+      <c r="O937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>Momiji Downhill Chikuwa Drift＆Grip Time Attack</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>wrld_f8bf004a-6329-4db5-889f-63e617ac447f</t>
+        </is>
+      </c>
+      <c r="D938" t="inlineStr">
+        <is>
+          <t>2021-08-01T01:45:42.771Z</t>
+        </is>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>2025-08-18T23:48:36.388Z</t>
+        </is>
+      </c>
+      <c r="F938" t="n">
+        <v>0</v>
+      </c>
+      <c r="G938" t="n">
+        <v>45</v>
+      </c>
+      <c r="H938" t="n">
+        <v>7470</v>
+      </c>
+      <c r="I938" t="n">
+        <v>6</v>
+      </c>
+      <c r="J938" t="n">
+        <v>7</v>
+      </c>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M938" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="N938" t="inlineStr">
+        <is>
+          <t>1479天</t>
+        </is>
+      </c>
+      <c r="O938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>Finishing Touch - Art Studio ＆ Gallery</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>wrld_93dc2a1f-60f6-474f-ba8b-f86ad2fd8025</t>
+        </is>
+      </c>
+      <c r="D939" t="inlineStr">
+        <is>
+          <t>2024-08-23T19:32:22.849Z</t>
+        </is>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>2025-08-07T22:14:29.214Z</t>
+        </is>
+      </c>
+      <c r="F939" t="n">
+        <v>0</v>
+      </c>
+      <c r="G939" t="n">
+        <v>80</v>
+      </c>
+      <c r="H939" t="n">
+        <v>11296</v>
+      </c>
+      <c r="I939" t="n">
+        <v>5</v>
+      </c>
+      <c r="J939" t="n">
+        <v>7</v>
+      </c>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>322天</t>
+        </is>
+      </c>
+      <c r="M939" t="inlineStr">
+        <is>
+          <t>11天</t>
+        </is>
+      </c>
+      <c r="N939" t="inlineStr">
+        <is>
+          <t>360天</t>
+        </is>
+      </c>
+      <c r="O939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>［Initial D］ Tsukuba Fruits Line</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>wrld_7216ef73-8f3a-4e0c-89ae-5796d1beedfb</t>
+        </is>
+      </c>
+      <c r="D940" t="inlineStr">
+        <is>
+          <t>2019-04-22T10:06:15.941Z</t>
+        </is>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>2025-04-16T19:03:51.545Z</t>
+        </is>
+      </c>
+      <c r="F940" t="n">
+        <v>0</v>
+      </c>
+      <c r="G940" t="n">
+        <v>60</v>
+      </c>
+      <c r="H940" t="n">
+        <v>5586</v>
+      </c>
+      <c r="I940" t="n">
+        <v>4</v>
+      </c>
+      <c r="J940" t="n">
+        <v>7</v>
+      </c>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M940" t="inlineStr">
+        <is>
+          <t>124天</t>
+        </is>
+      </c>
+      <c r="N940" t="inlineStr">
+        <is>
+          <t>2310天</t>
+        </is>
+      </c>
+      <c r="O940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>Jayson's The Amazing Digital Circus Avatars</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>wrld_c8f9bea7-bd21-4ad4-8df8-827e4518198a</t>
+        </is>
+      </c>
+      <c r="D941" t="inlineStr">
+        <is>
+          <t>2023-10-23T06:28:49.819Z</t>
+        </is>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>2024-05-15T18:04:08.635Z</t>
+        </is>
+      </c>
+      <c r="F941" t="n">
+        <v>0</v>
+      </c>
+      <c r="G941" t="n">
+        <v>64</v>
+      </c>
+      <c r="H941" t="n">
+        <v>8840</v>
+      </c>
+      <c r="I941" t="n">
+        <v>4</v>
+      </c>
+      <c r="J941" t="n">
+        <v>7</v>
+      </c>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M941" t="inlineStr">
+        <is>
+          <t>460天</t>
+        </is>
+      </c>
+      <c r="N941" t="inlineStr">
+        <is>
+          <t>665天</t>
+        </is>
+      </c>
+      <c r="O941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>Petal Colony -花の棲み家-</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>wrld_e90939a5-110d-446c-99a9-358f312325dd</t>
+        </is>
+      </c>
+      <c r="D942" t="inlineStr">
+        <is>
+          <t>2025-02-06T01:40:25.429Z</t>
+        </is>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>2025-02-13T08:48:27.258Z</t>
+        </is>
+      </c>
+      <c r="F942" t="n">
+        <v>0</v>
+      </c>
+      <c r="G942" t="n">
+        <v>12</v>
+      </c>
+      <c r="H942" t="n">
+        <v>4411</v>
+      </c>
+      <c r="I942" t="n">
+        <v>5</v>
+      </c>
+      <c r="J942" t="n">
+        <v>7</v>
+      </c>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>4天</t>
+        </is>
+      </c>
+      <c r="M942" t="inlineStr">
+        <is>
+          <t>186天</t>
+        </is>
+      </c>
+      <c r="N942" t="inlineStr">
+        <is>
+          <t>194天</t>
+        </is>
+      </c>
+      <c r="O942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>ChikuwaGP ⁄ NakedClass</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>wrld_e11b5790-0b92-4e82-9207-9989ca84c218</t>
+        </is>
+      </c>
+      <c r="D943" t="inlineStr">
+        <is>
+          <t>2024-04-10T01:47:06.317Z</t>
+        </is>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>2024-08-16T07:32:47.599Z</t>
+        </is>
+      </c>
+      <c r="F943" t="n">
+        <v>0</v>
+      </c>
+      <c r="G943" t="n">
+        <v>64</v>
+      </c>
+      <c r="H943" t="n">
+        <v>10092</v>
+      </c>
+      <c r="I943" t="n">
+        <v>4</v>
+      </c>
+      <c r="J943" t="n">
+        <v>7</v>
+      </c>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M943" t="inlineStr">
+        <is>
+          <t>367天</t>
+        </is>
+      </c>
+      <c r="N943" t="inlineStr">
+        <is>
+          <t>496天</t>
+        </is>
+      </c>
+      <c r="O943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>Calls in the Wind</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>wrld_4ebfd4bc-1549-428b-830b-f099ebd45c6f</t>
+        </is>
+      </c>
+      <c r="D944" t="inlineStr">
+        <is>
+          <t>2025-05-08T05:38:50.340Z</t>
+        </is>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>2025-08-10T00:25:07.191Z</t>
+        </is>
+      </c>
+      <c r="F944" t="n">
+        <v>0</v>
+      </c>
+      <c r="G944" t="n">
+        <v>66</v>
+      </c>
+      <c r="H944" t="n">
+        <v>4522</v>
+      </c>
+      <c r="I944" t="n">
+        <v>5</v>
+      </c>
+      <c r="J944" t="n">
+        <v>7</v>
+      </c>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M944" t="inlineStr">
+        <is>
+          <t>9天</t>
+        </is>
+      </c>
+      <c r="N944" t="inlineStr">
+        <is>
+          <t>103天</t>
+        </is>
+      </c>
+      <c r="O944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>Spiritedspy's Avatar Vault</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>wrld_251b5983-cf2a-4a93-9489-38be6b06475e</t>
+        </is>
+      </c>
+      <c r="D945" t="inlineStr">
+        <is>
+          <t>2020-06-27T12:36:25.900Z</t>
+        </is>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>2022-01-27T06:46:01.085Z</t>
+        </is>
+      </c>
+      <c r="F945" t="n">
+        <v>0</v>
+      </c>
+      <c r="G945" t="n">
+        <v>80</v>
+      </c>
+      <c r="H945" t="n">
+        <v>40232</v>
+      </c>
+      <c r="I945" t="n">
+        <v>4</v>
+      </c>
+      <c r="J945" t="n">
+        <v>7</v>
+      </c>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M945" t="inlineStr">
+        <is>
+          <t>1299天</t>
+        </is>
+      </c>
+      <c r="N945" t="inlineStr">
+        <is>
+          <t>1878天</t>
+        </is>
+      </c>
+      <c r="O945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>The Amazing Digital Circus - Tent Recreation</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>wrld_3e32de85-b4c7-446a-a38b-2a971fd3ea8c</t>
+        </is>
+      </c>
+      <c r="D946" t="inlineStr">
+        <is>
+          <t>2023-10-17T05:10:28.631Z</t>
+        </is>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>2023-12-11T08:11:45.074Z</t>
+        </is>
+      </c>
+      <c r="F946" t="n">
+        <v>0</v>
+      </c>
+      <c r="G946" t="n">
+        <v>64</v>
+      </c>
+      <c r="H946" t="n">
+        <v>3706</v>
+      </c>
+      <c r="I946" t="n">
+        <v>5</v>
+      </c>
+      <c r="J946" t="n">
+        <v>7</v>
+      </c>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M946" t="inlineStr">
+        <is>
+          <t>616天</t>
+        </is>
+      </c>
+      <c r="N946" t="inlineStr">
+        <is>
+          <t>672天</t>
+        </is>
+      </c>
+      <c r="O946" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>Hutong Lounge ［CN⁄EN］</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>wrld_0da7daf7-e8d4-4283-853e-29e59ea65a6c</t>
+        </is>
+      </c>
+      <c r="D947" t="inlineStr">
+        <is>
+          <t>2023-07-19T09:16:43.650Z</t>
+        </is>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>2024-12-30T08:10:37.854Z</t>
+        </is>
+      </c>
+      <c r="F947" t="n">
+        <v>0</v>
+      </c>
+      <c r="G947" t="n">
+        <v>60</v>
+      </c>
+      <c r="H947" t="n">
+        <v>3999</v>
+      </c>
+      <c r="I947" t="n">
+        <v>4</v>
+      </c>
+      <c r="J947" t="n">
+        <v>7</v>
+      </c>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M947" t="inlineStr">
+        <is>
+          <t>231天</t>
+        </is>
+      </c>
+      <c r="N947" t="inlineStr">
+        <is>
+          <t>761天</t>
+        </is>
+      </c>
+      <c r="O947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>［Initial D］ Akagi</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>wrld_dd812090-35a2-4768-90ed-efc9cdc1a277</t>
+        </is>
+      </c>
+      <c r="D948" t="inlineStr">
+        <is>
+          <t>2019-06-14T16:09:34.090Z</t>
+        </is>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>2024-09-29T14:47:54.057Z</t>
+        </is>
+      </c>
+      <c r="F948" t="n">
+        <v>0</v>
+      </c>
+      <c r="G948" t="n">
+        <v>60</v>
+      </c>
+      <c r="H948" t="n">
+        <v>5591</v>
+      </c>
+      <c r="I948" t="n">
+        <v>4</v>
+      </c>
+      <c r="J948" t="n">
+        <v>7</v>
+      </c>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M948" t="inlineStr">
+        <is>
+          <t>323天</t>
+        </is>
+      </c>
+      <c r="N948" t="inlineStr">
+        <is>
+          <t>2257天</t>
+        </is>
+      </c>
+      <c r="O948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>明月何时有2․1 How rare the moon‚ so round and clear</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>wrld_a7700e61-4792-48d9-b897-f20712365bf3</t>
+        </is>
+      </c>
+      <c r="D949" t="inlineStr">
+        <is>
+          <t>2024-09-09T11:43:13.319Z</t>
+        </is>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>2025-07-29T17:41:41.611Z</t>
+        </is>
+      </c>
+      <c r="F949" t="n">
+        <v>0</v>
+      </c>
+      <c r="G949" t="n">
+        <v>60</v>
+      </c>
+      <c r="H949" t="n">
+        <v>6320</v>
+      </c>
+      <c r="I949" t="n">
+        <v>4</v>
+      </c>
+      <c r="J949" t="n">
+        <v>7</v>
+      </c>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M949" t="inlineStr">
+        <is>
+          <t>20天</t>
+        </is>
+      </c>
+      <c r="N949" t="inlineStr">
+        <is>
+          <t>343天</t>
+        </is>
+      </c>
+      <c r="O949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>C's Rainy House</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>wrld_8fc89030-8c27-4c25-bece-4c4e2c8dcb11</t>
+        </is>
+      </c>
+      <c r="D950" t="inlineStr">
+        <is>
+          <t>2022-03-06T14:30:21.176Z</t>
+        </is>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>2022-04-15T13:05:51.862Z</t>
+        </is>
+      </c>
+      <c r="F950" t="n">
+        <v>0</v>
+      </c>
+      <c r="G950" t="n">
+        <v>32</v>
+      </c>
+      <c r="H950" t="n">
+        <v>1108</v>
+      </c>
+      <c r="I950" t="n">
+        <v>3</v>
+      </c>
+      <c r="J950" t="n">
+        <v>7</v>
+      </c>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>1天</t>
+        </is>
+      </c>
+      <c r="M950" t="inlineStr">
+        <is>
+          <t>1221天</t>
+        </is>
+      </c>
+      <c r="N950" t="inlineStr">
+        <is>
+          <t>1261天</t>
+        </is>
+      </c>
+      <c r="O950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>［Initial D］ Tsubaki Line</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>wrld_1510345f-38f3-48db-ae47-000b5e22cb7d</t>
+        </is>
+      </c>
+      <c r="D951" t="inlineStr">
+        <is>
+          <t>2020-06-07T12:56:56.908Z</t>
+        </is>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>2025-04-18T04:09:44.476Z</t>
+        </is>
+      </c>
+      <c r="F951" t="n">
+        <v>0</v>
+      </c>
+      <c r="G951" t="n">
+        <v>80</v>
+      </c>
+      <c r="H951" t="n">
+        <v>6101</v>
+      </c>
+      <c r="I951" t="n">
+        <v>4</v>
+      </c>
+      <c r="J951" t="n">
+        <v>7</v>
+      </c>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M951" t="inlineStr">
+        <is>
+          <t>123天</t>
+        </is>
+      </c>
+      <c r="N951" t="inlineStr">
+        <is>
+          <t>1898天</t>
+        </is>
+      </c>
+      <c r="O951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>［Initial D］ Irohazaka</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>wrld_b52d7669-cf0d-4392-8900-c3e79d16ccbc</t>
+        </is>
+      </c>
+      <c r="D952" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>2024-09-05T08:06:22.647Z</t>
+        </is>
+      </c>
+      <c r="F952" t="n">
+        <v>0</v>
+      </c>
+      <c r="G952" t="n">
+        <v>30</v>
+      </c>
+      <c r="H952" t="n">
+        <v>6601</v>
+      </c>
+      <c r="I952" t="n">
+        <v>4</v>
+      </c>
+      <c r="J952" t="n">
+        <v>7</v>
+      </c>
+      <c r="M952" t="inlineStr">
+        <is>
+          <t>347天</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>武山屋通 斗地主 ［CN］853 s Udon Chinese poker DouDizhu 闘地主</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>wrld_a9889c0d-a791-44e4-9650-e755709406f9</t>
+        </is>
+      </c>
+      <c r="D953" t="inlineStr">
+        <is>
+          <t>2022-04-13T13:44:44.731Z</t>
+        </is>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>2023-11-01T08:35:56.964Z</t>
+        </is>
+      </c>
+      <c r="F953" t="n">
+        <v>0</v>
+      </c>
+      <c r="G953" t="n">
+        <v>32</v>
+      </c>
+      <c r="H953" t="n">
+        <v>3683</v>
+      </c>
+      <c r="I953" t="n">
+        <v>4</v>
+      </c>
+      <c r="J953" t="n">
+        <v>7</v>
+      </c>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="M953" t="inlineStr">
+        <is>
+          <t>656天</t>
+        </is>
+      </c>
+      <c r="N953" t="inlineStr">
+        <is>
+          <t>1223天</t>
+        </is>
+      </c>
+      <c r="O953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>裏六甲 -UraRokkou-</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>wrld_2a3df68a-86a8-4949-86a3-f4cac379ac0a</t>
+        </is>
+      </c>
+      <c r="D954" t="inlineStr">
+        <is>
+          <t>2024-07-12T23:30:23.301Z</t>
+        </is>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>2025-05-24T12:43:22.822Z</t>
+        </is>
+      </c>
+      <c r="F954" t="n">
+        <v>0</v>
+      </c>
+      <c r="G954" t="n">
+        <v>64</v>
+      </c>
+      <c r="H954" t="n">
+        <v>4458</v>
+      </c>
+      <c r="I954" t="n">
+        <v>5</v>
+      </c>
+      <c r="J954" t="n">
+        <v>7</v>
+      </c>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M954" t="inlineStr">
+        <is>
+          <t>86天</t>
+        </is>
+      </c>
+      <c r="N954" t="inlineStr">
+        <is>
+          <t>402天</t>
+        </is>
+      </c>
+      <c r="O954" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>［Initial D］ Hakone Turnpike</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>wrld_f409e2c9-3ddf-4ec2-981e-b41fd9c6687e</t>
+        </is>
+      </c>
+      <c r="D955" t="inlineStr">
+        <is>
+          <t>2019-09-10T21:07:01.741Z</t>
+        </is>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>2025-04-21T01:07:18.610Z</t>
+        </is>
+      </c>
+      <c r="F955" t="n">
+        <v>0</v>
+      </c>
+      <c r="G955" t="n">
+        <v>60</v>
+      </c>
+      <c r="H955" t="n">
+        <v>5207</v>
+      </c>
+      <c r="I955" t="n">
+        <v>4</v>
+      </c>
+      <c r="J955" t="n">
+        <v>7</v>
+      </c>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M955" t="inlineStr">
+        <is>
+          <t>120天</t>
+        </is>
+      </c>
+      <c r="N955" t="inlineStr">
+        <is>
+          <t>2169天</t>
+        </is>
+      </c>
+      <c r="O955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>Desert Valley Drive CVS2</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>wrld_4c07ad74-0164-4b89-8173-a08565df27fa</t>
+        </is>
+      </c>
+      <c r="D956" t="inlineStr">
+        <is>
+          <t>2025-05-31T03:54:01.089Z</t>
+        </is>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>2025-07-27T09:17:26.777Z</t>
+        </is>
+      </c>
+      <c r="F956" t="n">
+        <v>0</v>
+      </c>
+      <c r="G956" t="n">
+        <v>50</v>
+      </c>
+      <c r="H956" t="n">
+        <v>7557</v>
+      </c>
+      <c r="I956" t="n">
+        <v>5</v>
+      </c>
+      <c r="J956" t="n">
+        <v>6</v>
+      </c>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M956" t="inlineStr">
+        <is>
+          <t>22天</t>
+        </is>
+      </c>
+      <c r="N956" t="inlineStr">
+        <is>
+          <t>80天</t>
+        </is>
+      </c>
+      <c r="O956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>Projekt˸ CAS</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>wrld_e5a437fe-56ac-445d-9822-899986067428</t>
+        </is>
+      </c>
+      <c r="D957" t="inlineStr">
+        <is>
+          <t>2024-12-25T05:14:10.924Z</t>
+        </is>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>2025-01-03T01:38:07.078Z</t>
+        </is>
+      </c>
+      <c r="F957" t="n">
+        <v>0</v>
+      </c>
+      <c r="G957" t="n">
+        <v>64</v>
+      </c>
+      <c r="H957" t="n">
+        <v>7489</v>
+      </c>
+      <c r="I957" t="n">
+        <v>4</v>
+      </c>
+      <c r="J957" t="n">
+        <v>6</v>
+      </c>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="M957" t="inlineStr">
+        <is>
+          <t>228天</t>
+        </is>
+      </c>
+      <c r="N957" t="inlineStr">
+        <is>
+          <t>237天</t>
+        </is>
+      </c>
+      <c r="O957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>Liminal alchove</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>wrld_f4c91d3f-f9e8-4a3a-8248-fc1484aa3cfe</t>
+        </is>
+      </c>
+      <c r="D958" t="inlineStr">
+        <is>
+          <t>2024-11-14T12:55:47.290Z</t>
+        </is>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>2025-04-12T05:59:05.755Z</t>
+        </is>
+      </c>
+      <c r="F958" t="n">
+        <v>0</v>
+      </c>
+      <c r="G958" t="n">
+        <v>40</v>
+      </c>
+      <c r="H958" t="n">
+        <v>3482</v>
+      </c>
+      <c r="I958" t="n">
+        <v>5</v>
+      </c>
+      <c r="J958" t="n">
+        <v>6</v>
+      </c>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M958" t="inlineStr">
+        <is>
+          <t>129天</t>
+        </is>
+      </c>
+      <c r="N958" t="inlineStr">
+        <is>
+          <t>277天</t>
+        </is>
+      </c>
+      <c r="O958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2025/08/19</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>CoS Room</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>wrld_b85f20cc-0a68-4d6b-b6b1-e722483a339b</t>
+        </is>
+      </c>
+      <c r="D959" t="inlineStr">
+        <is>
+          <t>2021-12-19T21:03:53.565Z</t>
+        </is>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>2021-12-17T10:52:07.033Z</t>
+        </is>
+      </c>
+      <c r="F959" t="n">
+        <v>0</v>
+      </c>
+      <c r="G959" t="n">
+        <v>16</v>
+      </c>
+      <c r="H959" t="n">
+        <v>1001</v>
+      </c>
+      <c r="I959" t="n">
+        <v>4</v>
+      </c>
+      <c r="J959" t="n">
+        <v>6</v>
+      </c>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>2天</t>
+        </is>
+      </c>
+      <c r="M959" t="inlineStr">
+        <is>
+          <t>1340天</t>
+        </is>
+      </c>
+      <c r="N959" t="inlineStr">
+        <is>
+          <t>1338天</t>
+        </is>
+      </c>
+      <c r="O959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>Starsight Museum</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>wrld_befc82b9-48d1-4d2a-8269-fb1ac1518f69</t>
+        </is>
+      </c>
+      <c r="D960" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>2025-08-13T13:48:58.458Z</t>
+        </is>
+      </c>
+      <c r="F960" t="n">
+        <v>0</v>
+      </c>
+      <c r="G960" t="n">
+        <v>32</v>
+      </c>
+      <c r="H960" t="n">
+        <v>0</v>
+      </c>
+      <c r="I960" t="n">
+        <v>0</v>
+      </c>
+      <c r="J960" t="n">
+        <v>0</v>
+      </c>
+      <c r="M960" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>Formosa Test</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>wrld_44e2cf46-b090-4c70-b5ba-9f7e7ec89d4f</t>
+        </is>
+      </c>
+      <c r="D961" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>2025-08-09T16:53:49.952Z</t>
+        </is>
+      </c>
+      <c r="F961" t="n">
+        <v>70</v>
+      </c>
+      <c r="G961" t="n">
+        <v>32</v>
+      </c>
+      <c r="H961" t="n">
+        <v>0</v>
+      </c>
+      <c r="I961" t="n">
+        <v>0</v>
+      </c>
+      <c r="J961" t="n">
+        <v>0</v>
+      </c>
+      <c r="L961" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M961" t="inlineStr">
+        <is>
+          <t>16天</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge CVS2 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>wrld_c4d985d3-11de-4a89-9e8b-60b0342a1676</t>
+        </is>
+      </c>
+      <c r="D962" t="inlineStr">
+        <is>
+          <t>2025-05-03T22:35:59.524Z</t>
+        </is>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>2025-08-02T09:39:48.354Z</t>
+        </is>
+      </c>
+      <c r="F962" t="n">
+        <v>2228</v>
+      </c>
+      <c r="G962" t="n">
+        <v>32</v>
+      </c>
+      <c r="H962" t="n">
+        <v>111</v>
+      </c>
+      <c r="I962" t="n">
+        <v>3</v>
+      </c>
+      <c r="J962" t="n">
+        <v>5</v>
+      </c>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>12天</t>
+        </is>
+      </c>
+      <c r="L962" t="inlineStr">
+        <is>
+          <t>4.98%</t>
+        </is>
+      </c>
+      <c r="M962" t="inlineStr">
+        <is>
+          <t>23天</t>
+        </is>
+      </c>
+      <c r="N962" t="inlineStr">
+        <is>
+          <t>114天</t>
+        </is>
+      </c>
+      <c r="O962" t="n">
+        <v>19.54</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>StarRiver Space Program v0․1․1 LiftOff</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>wrld_f3acb654-f2ab-49aa-9108-d261c53c5d64</t>
+        </is>
+      </c>
+      <c r="D963" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>2025-07-13T11:38:02.242Z</t>
+        </is>
+      </c>
+      <c r="F963" t="n">
+        <v>50</v>
+      </c>
+      <c r="G963" t="n">
+        <v>32</v>
+      </c>
+      <c r="H963" t="n">
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>0</v>
+      </c>
+      <c r="J963" t="n">
+        <v>3</v>
+      </c>
+      <c r="L963" t="inlineStr">
+        <is>
+          <t>2.0%</t>
+        </is>
+      </c>
+      <c r="M963" t="inlineStr">
+        <is>
+          <t>43天</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T SunMoonLake 日月潭 南投山道</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>wrld_1b189721-fa5d-4c64-a24b-9a2c5b89b3b5</t>
+        </is>
+      </c>
+      <c r="D964" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>2025-07-06T07:24:59.566Z</t>
+        </is>
+      </c>
+      <c r="F964" t="n">
+        <v>3</v>
+      </c>
+      <c r="G964" t="n">
+        <v>32</v>
+      </c>
+      <c r="H964" t="n">
+        <v>0</v>
+      </c>
+      <c r="I964" t="n">
+        <v>0</v>
+      </c>
+      <c r="J964" t="n">
+        <v>0</v>
+      </c>
+      <c r="L964" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M964" t="inlineStr">
+        <is>
+          <t>50天</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>UNFINISHED Project T WuLing 武嶺（佐久間峠） 合歡山山道</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>wrld_5fb84156-598a-43c8-8a2b-2c9aa7c95b40</t>
+        </is>
+      </c>
+      <c r="D965" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>2025-07-03T13:07:32.404Z</t>
+        </is>
+      </c>
+      <c r="F965" t="n">
+        <v>54</v>
+      </c>
+      <c r="G965" t="n">
+        <v>32</v>
+      </c>
+      <c r="H965" t="n">
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>0</v>
+      </c>
+      <c r="J965" t="n">
+        <v>3</v>
+      </c>
+      <c r="L965" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="M965" t="inlineStr">
+        <is>
+          <t>53天</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>Project T 9 Turns Taiwan Touge Sacc 九彎十八拐</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>wrld_a6f9cdae-d393-4572-b019-015e4ec6eb35</t>
+        </is>
+      </c>
+      <c r="D966" t="inlineStr">
+        <is>
+          <t>2025-04-09T11:56:42.006Z</t>
+        </is>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>2025-05-27T15:40:33.056Z</t>
+        </is>
+      </c>
+      <c r="F966" t="n">
+        <v>754</v>
+      </c>
+      <c r="G966" t="n">
+        <v>32</v>
+      </c>
+      <c r="H966" t="n">
+        <v>67</v>
+      </c>
+      <c r="I966" t="n">
+        <v>2</v>
+      </c>
+      <c r="J966" t="n">
+        <v>4</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>15天</t>
+        </is>
+      </c>
+      <c r="L966" t="inlineStr">
+        <is>
+          <t>8.89%</t>
+        </is>
+      </c>
+      <c r="M966" t="inlineStr">
+        <is>
+          <t>90天</t>
+        </is>
+      </c>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>138天</t>
+        </is>
+      </c>
+      <c r="O966" t="n">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>日月潭外周道 Sun Moon Lake</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>wrld_6e465490-9b15-4d2b-b4fe-1ea06e09e55a</t>
+        </is>
+      </c>
+      <c r="D967" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>2025-05-17T13:55:05.489Z</t>
+        </is>
+      </c>
+      <c r="F967" t="n">
+        <v>79</v>
+      </c>
+      <c r="G967" t="n">
+        <v>32</v>
+      </c>
+      <c r="H967" t="n">
+        <v>2</v>
+      </c>
+      <c r="I967" t="n">
+        <v>0</v>
+      </c>
+      <c r="J967" t="n">
+        <v>3</v>
+      </c>
+      <c r="L967" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="M967" t="inlineStr">
+        <is>
+          <t>100天</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>星門廣場StarGATE Exhibition</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>wrld_16498412-b9e0-404c-9da7-114484c89ecd</t>
+        </is>
+      </c>
+      <c r="D968" t="inlineStr">
+        <is>
+          <t>2024-07-22T05:06:07.749Z</t>
+        </is>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>2025-05-08T16:46:38.069Z</t>
+        </is>
+      </c>
+      <c r="F968" t="n">
+        <v>801</v>
+      </c>
+      <c r="G968" t="n">
+        <v>32</v>
+      </c>
+      <c r="H968" t="n">
+        <v>15</v>
+      </c>
+      <c r="I968" t="n">
+        <v>0</v>
+      </c>
+      <c r="J968" t="n">
+        <v>4</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>24天</t>
+        </is>
+      </c>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>1.87%</t>
+        </is>
+      </c>
+      <c r="M968" t="inlineStr">
+        <is>
+          <t>109天</t>
+        </is>
+      </c>
+      <c r="N968" t="inlineStr">
+        <is>
+          <t>399天</t>
+        </is>
+      </c>
+      <c r="O968" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Iseri Nina's Room （Girls Band Cry）</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>wrld_014b19d4-10fc-448d-aaf4-100067cc8eb2</t>
+        </is>
+      </c>
+      <c r="D969" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>2025-04-10T13:03:37.715Z</t>
+        </is>
+      </c>
+      <c r="F969" t="n">
+        <v>133</v>
+      </c>
+      <c r="G969" t="n">
+        <v>16</v>
+      </c>
+      <c r="H969" t="n">
+        <v>19</v>
+      </c>
+      <c r="I969" t="n">
+        <v>2</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3</v>
+      </c>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="M969" t="inlineStr">
+        <is>
+          <t>137天</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Starriver's Room</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>wrld_c0f03f3e-ca4c-48cb-8aea-14ed13c1ee03</t>
+        </is>
+      </c>
+      <c r="D970" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>2025-04-08T12:56:39.508Z</t>
+        </is>
+      </c>
+      <c r="F970" t="n">
+        <v>238</v>
+      </c>
+      <c r="G970" t="n">
+        <v>32</v>
+      </c>
+      <c r="H970" t="n">
+        <v>0</v>
+      </c>
+      <c r="I970" t="n">
+        <v>0</v>
+      </c>
+      <c r="J970" t="n">
+        <v>0</v>
+      </c>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M970" t="inlineStr">
+        <is>
+          <t>139天</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Metro Formosa Test</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>wrld_39eab7ef-be49-4bb2-bb63-56bc30200b82</t>
+        </is>
+      </c>
+      <c r="D971" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>2024-11-24T13:59:30.261Z</t>
+        </is>
+      </c>
+      <c r="F971" t="n">
+        <v>20</v>
+      </c>
+      <c r="G971" t="n">
+        <v>32</v>
+      </c>
+      <c r="H971" t="n">
+        <v>0</v>
+      </c>
+      <c r="I971" t="n">
+        <v>0</v>
+      </c>
+      <c r="J971" t="n">
+        <v>0</v>
+      </c>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M971" t="inlineStr">
+        <is>
+          <t>274天</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Project ˸ Prototype v0․1․0․ Hangout and chill ǃ （Minecraft Build Project）</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>wrld_fb9540f8-68f1-42e8-9430-558fc2d568c4</t>
+        </is>
+      </c>
+      <c r="D972" t="inlineStr">
+        <is>
+          <t>2023-10-15T12:21:09.717Z</t>
+        </is>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>2024-09-21T10:55:45.843Z</t>
+        </is>
+      </c>
+      <c r="F972" t="n">
+        <v>4281</v>
+      </c>
+      <c r="G972" t="n">
+        <v>32</v>
+      </c>
+      <c r="H972" t="n">
+        <v>181</v>
+      </c>
+      <c r="I972" t="n">
+        <v>2</v>
+      </c>
+      <c r="J972" t="n">
+        <v>5</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>5天</t>
+        </is>
+      </c>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>4.23%</t>
+        </is>
+      </c>
+      <c r="M972" t="inlineStr">
+        <is>
+          <t>338天</t>
+        </is>
+      </c>
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>680天</t>
+        </is>
+      </c>
+      <c r="O972" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>Taipei MRT 大坪林站 by StarRiver（未完成）</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>wrld_b7193f7d-4616-4b3e-8236-e2f4c7da2d8d</t>
+        </is>
+      </c>
+      <c r="D973" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>2024-09-15T05:18:23.226Z</t>
+        </is>
+      </c>
+      <c r="F973" t="n">
+        <v>117</v>
+      </c>
+      <c r="G973" t="n">
+        <v>32</v>
+      </c>
+      <c r="H973" t="n">
+        <v>2</v>
+      </c>
+      <c r="I973" t="n">
+        <v>0</v>
+      </c>
+      <c r="J973" t="n">
+        <v>4</v>
+      </c>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>1.71%</t>
+        </is>
+      </c>
+      <c r="M973" t="inlineStr">
+        <is>
+          <t>344天</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>Free Trajectory -A Landscape Recreation Experience</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>wrld_81e98a0f-b8eb-4a9b-b01b-35d26758c41c</t>
+        </is>
+      </c>
+      <c r="D974" t="inlineStr">
+        <is>
+          <t>2024-07-23T14:43:36.014Z</t>
+        </is>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>2024-07-22T19:52:03.599Z</t>
+        </is>
+      </c>
+      <c r="F974" t="n">
+        <v>362</v>
+      </c>
+      <c r="G974" t="n">
+        <v>32</v>
+      </c>
+      <c r="H974" t="n">
+        <v>3</v>
+      </c>
+      <c r="I974" t="n">
+        <v>0</v>
+      </c>
+      <c r="J974" t="n">
+        <v>4</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>0天</t>
+        </is>
+      </c>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="M974" t="inlineStr">
+        <is>
+          <t>399天</t>
+        </is>
+      </c>
+      <c r="N974" t="inlineStr">
+        <is>
+          <t>398天</t>
+        </is>
+      </c>
+      <c r="O974" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>Project：Hide＆Seek LAB（UNFINISHED ）</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>wrld_bac386e9-a543-48e7-a12d-fe9bd3521493</t>
+        </is>
+      </c>
+      <c r="D975" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>2024-07-11T09:44:06.067Z</t>
+        </is>
+      </c>
+      <c r="F975" t="n">
+        <v>49</v>
+      </c>
+      <c r="G975" t="n">
+        <v>16</v>
+      </c>
+      <c r="H975" t="n">
+        <v>0</v>
+      </c>
+      <c r="I975" t="n">
+        <v>0</v>
+      </c>
+      <c r="J975" t="n">
+        <v>0</v>
+      </c>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M975" t="inlineStr">
+        <is>
+          <t>410天</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>Simple Green Room（Quest 3 MR）</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>wrld_14e668e2-f41b-4655-9440-51be3be0ae81</t>
+        </is>
+      </c>
+      <c r="D976" t="inlineStr">
+        <is>
+          <t>2024-07-08T21:05:28.545Z</t>
+        </is>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>2024-07-11T08:38:23.384Z</t>
+        </is>
+      </c>
+      <c r="F976" t="n">
+        <v>636</v>
+      </c>
+      <c r="G976" t="n">
+        <v>8</v>
+      </c>
+      <c r="H976" t="n">
+        <v>36</v>
+      </c>
+      <c r="I976" t="n">
+        <v>0</v>
+      </c>
+      <c r="J976" t="n">
+        <v>4</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>263天</t>
+        </is>
+      </c>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="M976" t="inlineStr">
+        <is>
+          <t>410天</t>
+        </is>
+      </c>
+      <c r="N976" t="inlineStr">
+        <is>
+          <t>413天</t>
+        </is>
+      </c>
+      <c r="O976" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>Ruined斷垣殘壁 （測試）</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>wrld_7d7a9a66-df6a-4e2c-96fb-19b4dc53c430</t>
+        </is>
+      </c>
+      <c r="D977" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>2024-06-04T16:33:51.575Z</t>
+        </is>
+      </c>
+      <c r="F977" t="n">
+        <v>2</v>
+      </c>
+      <c r="G977" t="n">
+        <v>32</v>
+      </c>
+      <c r="H977" t="n">
+        <v>0</v>
+      </c>
+      <c r="I977" t="n">
+        <v>0</v>
+      </c>
+      <c r="J977" t="n">
+        <v>0</v>
+      </c>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M977" t="inlineStr">
+        <is>
+          <t>447天</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>2025/08/26</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>Project˸ Taiwan</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>wrld_2e5e73d8-758f-4e2d-87db-7770762d52f0</t>
+        </is>
+      </c>
+      <c r="D978" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>2023-12-08T22:31:41.588Z</t>
+        </is>
+      </c>
+      <c r="F978" t="n">
+        <v>11</v>
+      </c>
+      <c r="G978" t="n">
+        <v>32</v>
+      </c>
+      <c r="H978" t="n">
+        <v>0</v>
+      </c>
+      <c r="I978" t="n">
+        <v>0</v>
+      </c>
+      <c r="J978" t="n">
+        <v>0</v>
+      </c>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="M978" t="inlineStr">
+        <is>
+          <t>626天</t>
+        </is>
+      </c>
+      <c r="N978" t="inlineStr"/>
+      <c r="O978" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
